--- a/www/tests/parser/TestPostalTutorials.xlsx
+++ b/www/tests/parser/TestPostalTutorials.xlsx
@@ -274,9 +274,6 @@
     <t>Компьютерная графика</t>
   </si>
   <si>
-    <t xml:space="preserve">15.04(4ч),13.05(3ч)   </t>
-  </si>
-  <si>
     <t xml:space="preserve">              4.03,1.04,29.04,27.05(0,5ч)</t>
   </si>
   <si>
@@ -316,11 +313,401 @@
     <t>тех.оборуд.</t>
   </si>
   <si>
-    <t>с 18.00</t>
+    <t>Экова</t>
+  </si>
+  <si>
+    <t>Самойлов</t>
+  </si>
+  <si>
+    <t>Киселев</t>
+  </si>
+  <si>
+    <t>4.03,29.04 Б-404   Кулько П.А.</t>
+  </si>
+  <si>
+    <t>18.03,1.04 Б-404 Кулько П.А.</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>ТАУ</t>
+  </si>
+  <si>
+    <t>Операционные системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Эксплуат.материалы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         19.03,16.04,14.05,28.05(0,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            5.03,2.04,30.04,28.05(0,5ч)</t>
+  </si>
+  <si>
+    <t>5.03,2.04,30.04,28.05(2ч)</t>
+  </si>
+  <si>
+    <t>2.04,30.04(3ч)</t>
+  </si>
+  <si>
+    <t>mega_ka@mail.ru</t>
+  </si>
+  <si>
+    <t>lyumed@yandex.ru</t>
+  </si>
+  <si>
+    <t>Myhappy@list.ru</t>
+  </si>
+  <si>
+    <t>ovslautin@ya.ru</t>
+  </si>
+  <si>
+    <t>Казакова</t>
+  </si>
+  <si>
+    <t>Медведева</t>
+  </si>
+  <si>
+    <t>Панцакова</t>
+  </si>
+  <si>
+    <t>Слаутин</t>
+  </si>
+  <si>
+    <t>Прикладная механика(детали машин)</t>
+  </si>
+  <si>
+    <t>Машинная графика</t>
+  </si>
+  <si>
+    <t>Стратегич.менеджмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Основы теории надежн.</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              и диагностика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6.03,3.04,15.05,29.05(0,5ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             20.02,20.03,17.04,29.05(0,5ч)</t>
+  </si>
+  <si>
+    <t>20.03,17.04,15.05,29.05(2ч)</t>
+  </si>
+  <si>
+    <t>20.02,20.03,17.04,15.05(2,5ч)</t>
+  </si>
+  <si>
+    <t>smile427@mail.ru</t>
+  </si>
+  <si>
+    <t>20.03,17.04(3ч)</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>Староверова,Староверов</t>
+  </si>
+  <si>
+    <t>Гаврилова</t>
+  </si>
+  <si>
+    <t>Великанова</t>
+  </si>
+  <si>
+    <t>Д-221</t>
+  </si>
+  <si>
+    <t>8-00</t>
+  </si>
+  <si>
+    <t>Корпоротивная соц.ответ.</t>
+  </si>
+  <si>
+    <t>у</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>7.03,4.04,18.04,16.05(2,5ч)</t>
+  </si>
+  <si>
+    <t>В-206</t>
+  </si>
+  <si>
+    <t>Моделир.систем и процессов</t>
+  </si>
+  <si>
+    <t>Оборуд.машиностр.пр-в</t>
+  </si>
+  <si>
+    <t>Мобильные и встраив.операц.сист.</t>
+  </si>
+  <si>
+    <t>Подъемно-транспортное оборудование</t>
+  </si>
+  <si>
+    <t>6.04,4.05(3ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            23.03,20.04,18.05,1.06(0,5ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                6.04,4.05</t>
+  </si>
+  <si>
+    <t>6.04,4.05,1.06(1,5ч)</t>
+  </si>
+  <si>
+    <t>23.03,20.04,18.05,1.06(2ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pankova_la@pisem.net</t>
+  </si>
+  <si>
+    <t>aa_silaev@mail.ru</t>
+  </si>
+  <si>
+    <t>Б-405</t>
+  </si>
+  <si>
+    <t>д.</t>
+  </si>
+  <si>
+    <t>Макушкина</t>
+  </si>
+  <si>
+    <t>Силаев</t>
+  </si>
+  <si>
+    <t>Кулько А.П.</t>
+  </si>
+  <si>
+    <t>Маркетинг</t>
+  </si>
+  <si>
+    <t>Термодинамика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Термодинамика</t>
+  </si>
+  <si>
+    <t>Моделир.сист.и пр.</t>
+  </si>
+  <si>
+    <t>ТММ</t>
+  </si>
+  <si>
+    <t>Задачи мат.физики</t>
+  </si>
+  <si>
+    <t>Научная организация труда</t>
+  </si>
+  <si>
+    <t>Расчет автом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            10.03,7.04,5.05,2.06(0,5ч)</t>
+  </si>
+  <si>
+    <t>24.03,21.04,19.05,2.06(0,5ч)</t>
+  </si>
+  <si>
+    <t>10.03,5.05(0,5ч)</t>
+  </si>
+  <si>
+    <t>24.03,21.04,19.05(1,5ч)</t>
+  </si>
+  <si>
+    <t>10.03,7.04,5.05,2.06(2ч)</t>
+  </si>
+  <si>
+    <t>10.03,7.04,5.05,2.06(2,5ч)</t>
+  </si>
+  <si>
+    <t>10.03,7.04(3ч)</t>
+  </si>
+  <si>
+    <t>24.03,21.04(3ч)</t>
+  </si>
+  <si>
+    <t>allavictorovna@mail.ru</t>
+  </si>
+  <si>
+    <t>svetlana.yablonskih@mail.ru</t>
+  </si>
+  <si>
+    <t>taniaMatveeva@yandex.ru</t>
+  </si>
+  <si>
+    <t>н.</t>
+  </si>
+  <si>
+    <t>Соколова</t>
+  </si>
+  <si>
+    <t>Яблонских</t>
+  </si>
+  <si>
+    <t>Матвеева</t>
+  </si>
+  <si>
+    <t>Чернова</t>
+  </si>
+  <si>
+    <t>Культура речи</t>
+  </si>
+  <si>
+    <t>Тепловые процессы</t>
+  </si>
+  <si>
+    <t>Теор.основы автоматиз.управлений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               25.03,22.04,20.05,3.06(0,5ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              11.03,8.04,6.05,3.06(0,5ч)</t>
+  </si>
+  <si>
+    <t>11.03,8.04,6.05(1,5ч)</t>
+  </si>
+  <si>
+    <t>25.02,25.03,22.04,20.05(2ч)</t>
+  </si>
+  <si>
+    <t>25.02,25.03,22.04,20.05(2,5ч)</t>
+  </si>
+  <si>
+    <t>Д-117</t>
+  </si>
+  <si>
+    <t>Ивлева</t>
+  </si>
+  <si>
+    <t>Политология</t>
+  </si>
+  <si>
+    <t>Электроника</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Детали машин и основы конструирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 12.03,9.04,7.05,4.06(0,5ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           26.03,23.04,21.05,4.06(0,5ч)</t>
+  </si>
+  <si>
+    <t>12.03,9.04,7.05(1,5ч)</t>
+  </si>
+  <si>
+    <t>26.02,26.03,23.04,21.05(2ч)</t>
+  </si>
+  <si>
+    <t>11.03,8.04,6.05,3.06(2,5ч)</t>
+  </si>
+  <si>
+    <t>26.03,23.04(3ч)</t>
+  </si>
+  <si>
+    <t>nikcam@mail.ru</t>
+  </si>
+  <si>
+    <t>oxabra@yandex.ru</t>
+  </si>
+  <si>
+    <t>mncpro@mail.ru</t>
+  </si>
+  <si>
+    <t>р.</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>Абрамова</t>
+  </si>
+  <si>
+    <t>Невская</t>
+  </si>
+  <si>
+    <t>Тех.проц.авт.пр-в</t>
+  </si>
+  <si>
+    <t>Основы бизнес-планирования</t>
+  </si>
+  <si>
+    <t>Бюджетирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            13.03,10.04,8.05,5.06(0,5ч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           27.03,24.04,22.05,5.06(0,5ч)</t>
+  </si>
+  <si>
+    <t>13.03,10.04,8.05,5.06(2ч)</t>
+  </si>
+  <si>
+    <t>27.02,27.03,24.04,22.05(2,5ч)</t>
+  </si>
+  <si>
+    <t>Б-104</t>
+  </si>
+  <si>
+    <t>maxsima@list.ru</t>
+  </si>
+  <si>
+    <t>ok@cis2000.ru</t>
+  </si>
+  <si>
+    <t>Лапшина</t>
+  </si>
+  <si>
+    <t>Максимова</t>
+  </si>
+  <si>
+    <t>Кулакова</t>
+  </si>
+  <si>
+    <t>Начальник Учебного отдела ВПИ (филиал) ВолгГТУ</t>
+  </si>
+  <si>
+    <t>Декан Вечернего факультета</t>
+  </si>
+  <si>
+    <t>_________________________ Карпенко Л.Б.</t>
+  </si>
+  <si>
+    <t>_____________________доц. Спиридонова М.П.</t>
+  </si>
+  <si>
+    <t>с 13:00</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>с 18:00</t>
   </si>
   <si>
     <r>
-      <t>Теория автом.</t>
+      <t xml:space="preserve">Теория автом. </t>
     </r>
     <r>
       <rPr>
@@ -329,398 +716,11 @@
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>С 18.00</t>
+      <t>c 18:00</t>
     </r>
   </si>
   <si>
-    <t>Экова</t>
-  </si>
-  <si>
-    <t>Самойлов</t>
-  </si>
-  <si>
-    <t>Киселев</t>
-  </si>
-  <si>
-    <t>4.03,29.04 Б-404   Кулько П.А.</t>
-  </si>
-  <si>
-    <t>18.03,1.04 Б-404 Кулько П.А.</t>
-  </si>
-  <si>
-    <t>ч</t>
-  </si>
-  <si>
-    <t>ТАУ</t>
-  </si>
-  <si>
-    <t>Операционные системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Эксплуат.материалы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         19.03,16.04,14.05,28.05(0,5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            5.03,2.04,30.04,28.05(0,5ч)</t>
-  </si>
-  <si>
-    <t>5.03,2.04,30.04,28.05(2ч)</t>
-  </si>
-  <si>
-    <t>2.04,30.04(3ч)</t>
-  </si>
-  <si>
-    <t>mega_ka@mail.ru</t>
-  </si>
-  <si>
-    <t>lyumed@yandex.ru</t>
-  </si>
-  <si>
-    <t>Myhappy@list.ru</t>
-  </si>
-  <si>
-    <t>ovslautin@ya.ru</t>
-  </si>
-  <si>
-    <t>Казакова</t>
-  </si>
-  <si>
-    <t>Медведева</t>
-  </si>
-  <si>
-    <t>Панцакова</t>
-  </si>
-  <si>
-    <t>Слаутин</t>
-  </si>
-  <si>
-    <t>Прикладная механика(детали машин)</t>
-  </si>
-  <si>
-    <t>Машинная графика</t>
-  </si>
-  <si>
-    <t>Стратегич.менеджмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Основы теории надежн.</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              и диагностика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           6.03,3.04,15.05,29.05(0,5ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             20.02,20.03,17.04,29.05(0,5ч)</t>
-  </si>
-  <si>
-    <t>20.03,17.04,15.05,29.05(2ч)</t>
-  </si>
-  <si>
-    <t>20.02,20.03,17.04,15.05(2,5ч)</t>
-  </si>
-  <si>
-    <t>smile427@mail.ru</t>
-  </si>
-  <si>
-    <t>20.03,17.04(3ч)</t>
-  </si>
-  <si>
-    <t>ц</t>
-  </si>
-  <si>
-    <t>Староверова,Староверов</t>
-  </si>
-  <si>
-    <t>Гаврилова</t>
-  </si>
-  <si>
-    <t>Великанова</t>
-  </si>
-  <si>
-    <t>Д-221</t>
-  </si>
-  <si>
-    <t>8-00</t>
-  </si>
-  <si>
-    <t>Корпоротивная соц.ответ.</t>
-  </si>
-  <si>
-    <t>у</t>
-  </si>
-  <si>
-    <t>б</t>
-  </si>
-  <si>
-    <t>7.03,4.04,18.04,16.05(2,5ч)</t>
-  </si>
-  <si>
-    <t>В-206</t>
-  </si>
-  <si>
-    <t>Моделир.систем и процессов</t>
-  </si>
-  <si>
-    <t>Оборуд.машиностр.пр-в</t>
-  </si>
-  <si>
-    <t>Мобильные и встраив.операц.сист.</t>
-  </si>
-  <si>
-    <t>Подъемно-транспортное оборудование</t>
-  </si>
-  <si>
-    <t>6.04,4.05(3ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            23.03,20.04,18.05,1.06(0,5ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                6.04,4.05</t>
-  </si>
-  <si>
-    <t>6.04,4.05,1.06(1,5ч)</t>
-  </si>
-  <si>
-    <t>23.03,20.04,18.05,1.06(2ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        pankova_la@pisem.net</t>
-  </si>
-  <si>
-    <t>aa_silaev@mail.ru</t>
-  </si>
-  <si>
-    <t>Б-405</t>
-  </si>
-  <si>
-    <t>д.</t>
-  </si>
-  <si>
-    <t>Макушкина</t>
-  </si>
-  <si>
-    <t>Силаев</t>
-  </si>
-  <si>
-    <t>Кулько А.П.</t>
-  </si>
-  <si>
-    <t>Маркетинг</t>
-  </si>
-  <si>
-    <t>Термодинамика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Термодинамика</t>
-  </si>
-  <si>
-    <t>Моделир.сист.и пр.</t>
-  </si>
-  <si>
-    <t>ТММ</t>
-  </si>
-  <si>
-    <t>Задачи мат.физики</t>
-  </si>
-  <si>
-    <t>Научная организация труда</t>
-  </si>
-  <si>
-    <t>Расчет автом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            10.03,7.04,5.05,2.06(0,5ч)</t>
-  </si>
-  <si>
-    <t>24.03,21.04,19.05,2.06(0,5ч)</t>
-  </si>
-  <si>
-    <t>10.03,5.05(0,5ч)</t>
-  </si>
-  <si>
-    <t>24.03,21.04,19.05(1,5ч)</t>
-  </si>
-  <si>
-    <t>10.03,7.04,5.05,2.06(2ч)</t>
-  </si>
-  <si>
-    <t>10.03,7.04,5.05,2.06(2,5ч)</t>
-  </si>
-  <si>
-    <t>10.03,7.04(3ч)</t>
-  </si>
-  <si>
-    <t>24.03,21.04(3ч)</t>
-  </si>
-  <si>
-    <t>allavictorovna@mail.ru</t>
-  </si>
-  <si>
-    <t>svetlana.yablonskih@mail.ru</t>
-  </si>
-  <si>
-    <t>taniaMatveeva@yandex.ru</t>
-  </si>
-  <si>
-    <t>н.</t>
-  </si>
-  <si>
-    <t>Соколова</t>
-  </si>
-  <si>
-    <t>Яблонских</t>
-  </si>
-  <si>
-    <t>Матвеева</t>
-  </si>
-  <si>
-    <t>Чернова</t>
-  </si>
-  <si>
-    <t>Культура речи</t>
-  </si>
-  <si>
-    <t>Тепловые процессы</t>
-  </si>
-  <si>
-    <t>Теор.основы автоматиз.управлений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               25.03,22.04,20.05,3.06(0,5ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              11.03,8.04,6.05,3.06(0,5ч)</t>
-  </si>
-  <si>
-    <t>11.03,8.04,6.05(1,5ч)</t>
-  </si>
-  <si>
-    <t>25.02,25.03,22.04,20.05(2ч)</t>
-  </si>
-  <si>
-    <t>25.02,25.03,22.04,20.05(2,5ч)</t>
-  </si>
-  <si>
-    <t>Д-117</t>
-  </si>
-  <si>
-    <t>Ивлева</t>
-  </si>
-  <si>
-    <t>Политология</t>
-  </si>
-  <si>
-    <t>Электроника</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Детали машин и основы конструирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 12.03,9.04,7.05,4.06(0,5ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           26.03,23.04,21.05,4.06(0,5ч)</t>
-  </si>
-  <si>
-    <t>12.03,9.04,7.05(1,5ч)</t>
-  </si>
-  <si>
-    <t>26.02,26.03,23.04,21.05(2ч)</t>
-  </si>
-  <si>
-    <t>11.03,8.04,6.05,3.06(2,5ч)</t>
-  </si>
-  <si>
-    <t>26.03,23.04(3ч)</t>
-  </si>
-  <si>
-    <t>nikcam@mail.ru</t>
-  </si>
-  <si>
-    <t>oxabra@yandex.ru</t>
-  </si>
-  <si>
-    <t>mncpro@mail.ru</t>
-  </si>
-  <si>
-    <t>р.</t>
-  </si>
-  <si>
-    <t>Николаев</t>
-  </si>
-  <si>
-    <t>Абрамова</t>
-  </si>
-  <si>
-    <t>Невская</t>
-  </si>
-  <si>
-    <t>Тех.проц.авт.пр-в</t>
-  </si>
-  <si>
-    <t>Основы бизнес-планирования</t>
-  </si>
-  <si>
-    <t>Бюджетирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            13.03,10.04,8.05,5.06(0,5ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           27.03,24.04,22.05,5.06(0,5ч)</t>
-  </si>
-  <si>
-    <t>13.03,10.04,8.05,5.06(2ч)</t>
-  </si>
-  <si>
-    <t>27.02,27.03,24.04,22.05(2,5ч)</t>
-  </si>
-  <si>
-    <t>Б-104</t>
-  </si>
-  <si>
-    <t>maxsima@list.ru</t>
-  </si>
-  <si>
-    <t>ok@cis2000.ru</t>
-  </si>
-  <si>
-    <t>Лапшина</t>
-  </si>
-  <si>
-    <t>Максимова</t>
-  </si>
-  <si>
-    <t>Кулакова</t>
-  </si>
-  <si>
-    <t>Начальник Учебного отдела ВПИ (филиал) ВолгГТУ</t>
-  </si>
-  <si>
-    <t>Декан Вечернего факультета</t>
-  </si>
-  <si>
-    <t>_________________________ Карпенко Л.Б.</t>
-  </si>
-  <si>
-    <t>_____________________доц. Спиридонова М.П.</t>
-  </si>
-  <si>
-    <t>с 13:00</t>
-  </si>
-  <si>
-    <t>Часы</t>
+    <t xml:space="preserve">15.04,13.05(3ч)   </t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1494,17 +1494,6 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1603,7 +1592,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1775,9 +1764,6 @@
     <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1791,10 +1777,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1810,10 +1796,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1832,7 +1818,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1947,7 +1933,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,7 +1954,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +1988,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2041,7 +2027,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,7 +2043,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,14 +2103,14 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2199,9 +2185,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2315,371 +2298,386 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2989,16 +2987,16 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="301" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="301" customWidth="1"/>
-    <col min="3" max="3" width="7" style="301" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="301" customWidth="1"/>
+    <col min="1" max="1" width="4" style="299" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="299" customWidth="1"/>
+    <col min="3" max="3" width="7" style="299" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="299" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" customWidth="1"/>
@@ -3172,44 +3170,44 @@
         <v>15</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" s="426" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="422"/>
-      <c r="J9" s="422"/>
-      <c r="K9" s="423"/>
-      <c r="L9" s="421" t="s">
+      <c r="I9" s="318"/>
+      <c r="J9" s="318"/>
+      <c r="K9" s="319"/>
+      <c r="L9" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="422"/>
-      <c r="N9" s="422"/>
-      <c r="O9" s="423"/>
-      <c r="P9" s="421" t="s">
+      <c r="M9" s="318"/>
+      <c r="N9" s="318"/>
+      <c r="O9" s="319"/>
+      <c r="P9" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="427"/>
-      <c r="R9" s="427"/>
-      <c r="S9" s="428"/>
-      <c r="T9" s="426" t="s">
+      <c r="Q9" s="328"/>
+      <c r="R9" s="328"/>
+      <c r="S9" s="329"/>
+      <c r="T9" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="422"/>
-      <c r="V9" s="422"/>
-      <c r="W9" s="423"/>
-      <c r="X9" s="421" t="s">
+      <c r="U9" s="318"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="319"/>
+      <c r="X9" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="422"/>
-      <c r="Z9" s="422"/>
-      <c r="AA9" s="423"/>
-      <c r="AB9" s="421" t="s">
+      <c r="Y9" s="318"/>
+      <c r="Z9" s="318"/>
+      <c r="AA9" s="319"/>
+      <c r="AB9" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="AC9" s="422"/>
-      <c r="AD9" s="422"/>
-      <c r="AE9" s="423"/>
+      <c r="AC9" s="318"/>
+      <c r="AD9" s="318"/>
+      <c r="AE9" s="319"/>
     </row>
     <row r="10" spans="1:31" s="20" customFormat="1" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
@@ -3258,40 +3256,40 @@
       <c r="G11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="326" t="s">
+      <c r="H11" s="321" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="327"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="327"/>
-      <c r="L11" s="320" t="s">
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="327"/>
-      <c r="N11" s="327"/>
-      <c r="O11" s="328"/>
-      <c r="P11" s="424" t="s">
+      <c r="M11" s="322"/>
+      <c r="N11" s="322"/>
+      <c r="O11" s="324"/>
+      <c r="P11" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="425"/>
-      <c r="R11" s="310" t="s">
+      <c r="Q11" s="326"/>
+      <c r="R11" s="303" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="312"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="311"/>
-      <c r="V11" s="311"/>
-      <c r="W11" s="312"/>
-      <c r="X11" s="418"/>
-      <c r="Y11" s="419"/>
-      <c r="Z11" s="419"/>
-      <c r="AA11" s="420"/>
-      <c r="AB11" s="351" t="s">
+      <c r="S11" s="305"/>
+      <c r="T11" s="303"/>
+      <c r="U11" s="304"/>
+      <c r="V11" s="304"/>
+      <c r="W11" s="305"/>
+      <c r="X11" s="306"/>
+      <c r="Y11" s="307"/>
+      <c r="Z11" s="307"/>
+      <c r="AA11" s="308"/>
+      <c r="AB11" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="398"/>
-      <c r="AD11" s="398"/>
-      <c r="AE11" s="399"/>
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="310"/>
+      <c r="AE11" s="311"/>
     </row>
     <row r="12" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
@@ -3325,18 +3323,18 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="31"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="390"/>
-      <c r="U12" s="391"/>
-      <c r="V12" s="391"/>
-      <c r="W12" s="392"/>
+      <c r="T12" s="312"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="313"/>
+      <c r="W12" s="314"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="413"/>
-      <c r="AC12" s="414"/>
-      <c r="AD12" s="414"/>
-      <c r="AE12" s="415"/>
+      <c r="AB12" s="315"/>
+      <c r="AC12" s="316"/>
+      <c r="AD12" s="316"/>
+      <c r="AE12" s="320"/>
     </row>
     <row r="13" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
@@ -3360,28 +3358,28 @@
       <c r="M13" s="41"/>
       <c r="N13" s="27"/>
       <c r="O13" s="42"/>
-      <c r="P13" s="303" t="s">
+      <c r="P13" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="309"/>
-      <c r="R13" s="303" t="s">
+      <c r="Q13" s="339"/>
+      <c r="R13" s="338" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="309"/>
-      <c r="T13" s="303"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="304"/>
-      <c r="W13" s="309"/>
+      <c r="S13" s="339"/>
+      <c r="T13" s="338"/>
+      <c r="U13" s="340"/>
+      <c r="V13" s="340"/>
+      <c r="W13" s="339"/>
       <c r="X13" s="44"/>
-      <c r="Y13" s="416"/>
-      <c r="Z13" s="416"/>
-      <c r="AA13" s="417"/>
-      <c r="AB13" s="339" t="s">
+      <c r="Y13" s="341"/>
+      <c r="Z13" s="341"/>
+      <c r="AA13" s="342"/>
+      <c r="AB13" s="343" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" s="315"/>
-      <c r="AD13" s="315"/>
-      <c r="AE13" s="354"/>
+      <c r="AC13" s="336"/>
+      <c r="AD13" s="336"/>
+      <c r="AE13" s="344"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -3401,18 +3399,18 @@
       <c r="G14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="302" t="s">
+      <c r="H14" s="300" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="338" t="s">
+      <c r="L14" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="307"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="307"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="331"/>
+      <c r="O14" s="331"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="31"/>
@@ -3423,14 +3421,14 @@
       <c r="W14" s="35"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="37"/>
-      <c r="Z14" s="411"/>
-      <c r="AA14" s="412"/>
-      <c r="AB14" s="306" t="s">
+      <c r="Z14" s="332"/>
+      <c r="AA14" s="333"/>
+      <c r="AB14" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="307"/>
-      <c r="AD14" s="307"/>
-      <c r="AE14" s="405"/>
+      <c r="AC14" s="331"/>
+      <c r="AD14" s="331"/>
+      <c r="AE14" s="335"/>
     </row>
     <row r="15" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -3454,10 +3452,10 @@
       <c r="Q15" s="56"/>
       <c r="R15" s="53"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="315"/>
-      <c r="V15" s="315"/>
-      <c r="W15" s="316"/>
+      <c r="T15" s="334"/>
+      <c r="U15" s="336"/>
+      <c r="V15" s="336"/>
+      <c r="W15" s="337"/>
       <c r="X15" s="57"/>
       <c r="Z15" s="58"/>
       <c r="AA15" s="59"/>
@@ -3531,44 +3529,44 @@
       <c r="G17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="326" t="s">
+      <c r="H17" s="430" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="327"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="327"/>
-      <c r="L17" s="320" t="s">
+      <c r="I17" s="301"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="429" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="327"/>
-      <c r="N17" s="327"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="336" t="s">
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="345" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="323"/>
-      <c r="R17" s="323"/>
-      <c r="S17" s="341"/>
-      <c r="T17" s="310" t="s">
+      <c r="Q17" s="346"/>
+      <c r="R17" s="346"/>
+      <c r="S17" s="347"/>
+      <c r="T17" s="303" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="312"/>
-      <c r="V17" s="310" t="s">
+      <c r="U17" s="305"/>
+      <c r="V17" s="303" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="312"/>
-      <c r="X17" s="336" t="s">
+      <c r="W17" s="305"/>
+      <c r="X17" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="323"/>
-      <c r="Z17" s="323"/>
-      <c r="AA17" s="341"/>
-      <c r="AB17" s="351" t="s">
+      <c r="Y17" s="346"/>
+      <c r="Z17" s="346"/>
+      <c r="AA17" s="347"/>
+      <c r="AB17" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="AC17" s="398"/>
-      <c r="AD17" s="398"/>
-      <c r="AE17" s="399"/>
+      <c r="AC17" s="310"/>
+      <c r="AD17" s="310"/>
+      <c r="AE17" s="311"/>
     </row>
     <row r="18" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3604,20 +3602,20 @@
       <c r="S18" s="35"/>
       <c r="T18" s="33"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="390" t="s">
+      <c r="V18" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="392"/>
-      <c r="X18" s="400" t="s">
+      <c r="W18" s="314"/>
+      <c r="X18" s="348" t="s">
         <v>56</v>
       </c>
-      <c r="Y18" s="401"/>
-      <c r="Z18" s="401"/>
-      <c r="AA18" s="402"/>
-      <c r="AB18" s="413"/>
-      <c r="AC18" s="414"/>
-      <c r="AD18" s="414"/>
-      <c r="AE18" s="415"/>
+      <c r="Y18" s="349"/>
+      <c r="Z18" s="349"/>
+      <c r="AA18" s="350"/>
+      <c r="AB18" s="315"/>
+      <c r="AC18" s="316"/>
+      <c r="AD18" s="316"/>
+      <c r="AE18" s="320"/>
     </row>
     <row r="19" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -3641,34 +3639,34 @@
       <c r="M19" s="41"/>
       <c r="N19" s="27"/>
       <c r="O19" s="42"/>
-      <c r="P19" s="303" t="s">
+      <c r="P19" s="338" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="304"/>
-      <c r="R19" s="304"/>
-      <c r="S19" s="309"/>
-      <c r="T19" s="406" t="s">
+      <c r="Q19" s="340"/>
+      <c r="R19" s="340"/>
+      <c r="S19" s="339"/>
+      <c r="T19" s="355" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="407"/>
-      <c r="V19" s="408" t="s">
+      <c r="U19" s="356"/>
+      <c r="V19" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="W19" s="409"/>
-      <c r="X19" s="303" t="s">
+      <c r="W19" s="358"/>
+      <c r="X19" s="338" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="304"/>
-      <c r="Z19" s="304"/>
-      <c r="AA19" s="309"/>
-      <c r="AB19" s="339" t="s">
+      <c r="Y19" s="340"/>
+      <c r="Z19" s="340"/>
+      <c r="AA19" s="339"/>
+      <c r="AB19" s="343" t="s">
         <v>63</v>
       </c>
-      <c r="AC19" s="315"/>
-      <c r="AD19" s="315"/>
-      <c r="AE19" s="354"/>
-    </row>
-    <row r="20" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="336"/>
+      <c r="AD19" s="336"/>
+      <c r="AE19" s="344"/>
+    </row>
+    <row r="20" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>64</v>
       </c>
@@ -3686,13 +3684,13 @@
       <c r="G20" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="H20" t="s">
         <v>66</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="79" t="s">
+      <c r="L20" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="31"/>
@@ -3708,18 +3706,18 @@
       <c r="U20" s="46"/>
       <c r="V20" s="31"/>
       <c r="W20" s="35"/>
-      <c r="X20" s="338" t="s">
+      <c r="X20" s="330" t="s">
         <v>68</v>
       </c>
-      <c r="Y20" s="332"/>
-      <c r="Z20" s="332"/>
-      <c r="AA20" s="308"/>
-      <c r="AB20" s="338" t="s">
+      <c r="Y20" s="353"/>
+      <c r="Z20" s="353"/>
+      <c r="AA20" s="354"/>
+      <c r="AB20" s="330" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="307"/>
-      <c r="AD20" s="307"/>
-      <c r="AE20" s="405"/>
+      <c r="AC20" s="331"/>
+      <c r="AD20" s="331"/>
+      <c r="AE20" s="335"/>
     </row>
     <row r="21" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -3747,10 +3745,10 @@
       <c r="U21" s="45"/>
       <c r="V21" s="53"/>
       <c r="W21" s="35"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="84"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="83"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -3792,16 +3790,16 @@
         <v>73</v>
       </c>
       <c r="U22" s="71"/>
-      <c r="V22" s="403" t="s">
+      <c r="V22" s="351" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="404"/>
+      <c r="W22" s="352"/>
       <c r="X22" s="70" t="s">
         <v>75</v>
       </c>
       <c r="Y22" s="63"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="85"/>
       <c r="AB22" s="68" t="s">
         <v>76</v>
       </c>
@@ -3810,7 +3808,7 @@
       <c r="AE22" s="77"/>
     </row>
     <row r="23" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="86" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="23"/>
@@ -3821,45 +3819,45 @@
       <c r="G23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="326" t="s">
+      <c r="H23" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="327"/>
-      <c r="J23" s="327"/>
-      <c r="K23" s="327"/>
-      <c r="L23" s="320" t="s">
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="327"/>
-      <c r="N23" s="327"/>
-      <c r="O23" s="328"/>
-      <c r="P23" s="336" t="s">
+      <c r="M23" s="322"/>
+      <c r="N23" s="322"/>
+      <c r="O23" s="324"/>
+      <c r="P23" s="345" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="323"/>
-      <c r="R23" s="323"/>
-      <c r="S23" s="341"/>
-      <c r="T23" s="310" t="s">
+      <c r="Q23" s="346"/>
+      <c r="R23" s="346"/>
+      <c r="S23" s="347"/>
+      <c r="T23" s="303" t="s">
         <v>82</v>
       </c>
-      <c r="U23" s="311"/>
-      <c r="V23" s="311"/>
-      <c r="W23" s="312"/>
-      <c r="X23" s="336" t="s">
+      <c r="U23" s="304"/>
+      <c r="V23" s="304"/>
+      <c r="W23" s="305"/>
+      <c r="X23" s="345" t="s">
         <v>78</v>
       </c>
-      <c r="Y23" s="323"/>
-      <c r="Z23" s="323"/>
-      <c r="AA23" s="341"/>
-      <c r="AB23" s="321" t="s">
+      <c r="Y23" s="346"/>
+      <c r="Z23" s="346"/>
+      <c r="AA23" s="347"/>
+      <c r="AB23" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="AC23" s="321"/>
-      <c r="AD23" s="321"/>
-      <c r="AE23" s="410"/>
+      <c r="AC23" s="359"/>
+      <c r="AD23" s="359"/>
+      <c r="AE23" s="360"/>
     </row>
     <row r="24" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="86" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="26">
@@ -3877,7 +3875,7 @@
       <c r="F24" s="26">
         <v>10</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -3890,23 +3888,23 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="390"/>
-      <c r="Y24" s="391"/>
-      <c r="Z24" s="391"/>
-      <c r="AA24" s="392"/>
-      <c r="AB24" s="315" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC24" s="315"/>
-      <c r="AD24" s="315"/>
-      <c r="AE24" s="354"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="312"/>
+      <c r="Y24" s="313"/>
+      <c r="Z24" s="313"/>
+      <c r="AA24" s="314"/>
+      <c r="AB24" s="336" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC24" s="336"/>
+      <c r="AD24" s="336"/>
+      <c r="AE24" s="344"/>
     </row>
     <row r="25" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="39"/>
@@ -3914,46 +3912,46 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="91"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="27"/>
       <c r="K25" s="42"/>
       <c r="L25" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="27"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="303" t="s">
+      <c r="P25" s="338" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="340"/>
+      <c r="R25" s="340"/>
+      <c r="S25" s="339"/>
+      <c r="T25" s="338" t="s">
         <v>88</v>
       </c>
-      <c r="Q25" s="304"/>
-      <c r="R25" s="304"/>
-      <c r="S25" s="309"/>
-      <c r="T25" s="303" t="s">
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="339"/>
+      <c r="X25" s="363" t="s">
         <v>89</v>
       </c>
-      <c r="U25" s="304"/>
-      <c r="V25" s="304"/>
-      <c r="W25" s="309"/>
-      <c r="X25" s="386" t="s">
+      <c r="Y25" s="364"/>
+      <c r="Z25" s="364"/>
+      <c r="AA25" s="365"/>
+      <c r="AB25" s="366" t="s">
         <v>90</v>
       </c>
-      <c r="Y25" s="378"/>
-      <c r="Z25" s="378"/>
-      <c r="AA25" s="387"/>
-      <c r="AB25" s="395" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC25" s="315"/>
-      <c r="AD25" s="315"/>
-      <c r="AE25" s="354"/>
+      <c r="AC25" s="336"/>
+      <c r="AD25" s="336"/>
+      <c r="AE25" s="344"/>
     </row>
     <row r="26" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="86" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="26"/>
@@ -3967,51 +3965,51 @@
         <v>27</v>
       </c>
       <c r="F26" s="26"/>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="92"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="92"/>
+      <c r="L26" s="91"/>
       <c r="M26" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="32"/>
       <c r="P26" s="33"/>
-      <c r="Q26" s="93" t="s">
+      <c r="Q26" s="92" t="s">
         <v>38</v>
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="329" t="s">
+      <c r="T26" s="367" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="368"/>
+      <c r="V26" s="368"/>
+      <c r="W26" s="369"/>
+      <c r="X26" s="353" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y26" s="353"/>
+      <c r="Z26" s="353"/>
+      <c r="AA26" s="354"/>
+      <c r="AB26" s="370" t="s">
         <v>95</v>
       </c>
-      <c r="U26" s="396"/>
-      <c r="V26" s="396"/>
-      <c r="W26" s="397"/>
-      <c r="X26" s="332" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y26" s="332"/>
-      <c r="Z26" s="332"/>
-      <c r="AA26" s="308"/>
-      <c r="AB26" s="379" t="s">
+      <c r="AC26" s="371"/>
+      <c r="AD26" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="94"/>
+    </row>
+    <row r="27" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="86" t="s">
         <v>96</v>
-      </c>
-      <c r="AC26" s="380"/>
-      <c r="AD26" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="95"/>
-    </row>
-    <row r="27" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
-        <v>97</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -4031,26 +4029,26 @@
       <c r="Q27" s="45"/>
       <c r="R27" s="53"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="381"/>
-      <c r="U27" s="382"/>
-      <c r="V27" s="382"/>
-      <c r="W27" s="383"/>
+      <c r="T27" s="372"/>
+      <c r="U27" s="373"/>
+      <c r="V27" s="373"/>
+      <c r="W27" s="374"/>
       <c r="X27" s="57"/>
       <c r="Z27" s="58"/>
       <c r="AA27" s="59"/>
-      <c r="AB27" s="99" t="s">
-        <v>98</v>
+      <c r="AB27" s="98" t="s">
+        <v>97</v>
       </c>
       <c r="AC27" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD27" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE27" s="101"/>
+        <v>228</v>
+      </c>
+      <c r="AD27" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE27" s="100"/>
     </row>
     <row r="28" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26">
@@ -4062,13 +4060,13 @@
         <v>41</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="66"/>
       <c r="L28" s="65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
@@ -4080,29 +4078,29 @@
       <c r="R28" s="68"/>
       <c r="S28" s="68"/>
       <c r="T28" s="70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U28" s="63"/>
       <c r="V28" s="63"/>
       <c r="W28" s="63"/>
-      <c r="X28" s="104" t="s">
+      <c r="X28" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="375" t="s">
         <v>101</v>
       </c>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="384" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC28" s="385"/>
-      <c r="AD28" s="393" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE28" s="394"/>
+      <c r="AC28" s="376"/>
+      <c r="AD28" s="361" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" s="362"/>
     </row>
     <row r="29" spans="1:31" s="13" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87" t="s">
-        <v>106</v>
+      <c r="A29" s="86" t="s">
+        <v>103</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -4112,38 +4110,38 @@
       <c r="G29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="326" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="327"/>
-      <c r="J29" s="327"/>
-      <c r="K29" s="327"/>
-      <c r="L29" s="320" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="327"/>
-      <c r="N29" s="327"/>
-      <c r="O29" s="328"/>
-      <c r="P29" s="336"/>
-      <c r="Q29" s="323"/>
-      <c r="R29" s="323"/>
-      <c r="S29" s="341"/>
-      <c r="T29" s="388" t="s">
-        <v>108</v>
-      </c>
-      <c r="U29" s="389"/>
-      <c r="V29" s="389"/>
-      <c r="W29" s="389"/>
-      <c r="X29" s="336"/>
-      <c r="Y29" s="323"/>
-      <c r="Z29" s="323"/>
-      <c r="AA29" s="341"/>
-      <c r="AB29" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="109"/>
+      <c r="H29" s="321" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="322"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="322"/>
+      <c r="L29" s="323" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="322"/>
+      <c r="N29" s="322"/>
+      <c r="O29" s="324"/>
+      <c r="P29" s="345"/>
+      <c r="Q29" s="346"/>
+      <c r="R29" s="346"/>
+      <c r="S29" s="347"/>
+      <c r="T29" s="377" t="s">
+        <v>105</v>
+      </c>
+      <c r="U29" s="378"/>
+      <c r="V29" s="378"/>
+      <c r="W29" s="378"/>
+      <c r="X29" s="345"/>
+      <c r="Y29" s="346"/>
+      <c r="Z29" s="346"/>
+      <c r="AA29" s="347"/>
+      <c r="AB29" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="108"/>
     </row>
     <row r="30" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -4164,7 +4162,7 @@
       <c r="F30" s="26">
         <v>11</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -4173,22 +4171,22 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="390"/>
-      <c r="Q30" s="391"/>
-      <c r="R30" s="391"/>
-      <c r="S30" s="392"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="111"/>
+      <c r="P30" s="312"/>
+      <c r="Q30" s="313"/>
+      <c r="R30" s="313"/>
+      <c r="S30" s="314"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="110"/>
       <c r="V30" s="28"/>
       <c r="W30" s="50"/>
-      <c r="X30" s="390"/>
-      <c r="Y30" s="391"/>
-      <c r="Z30" s="391"/>
-      <c r="AA30" s="392"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="114"/>
+      <c r="X30" s="312"/>
+      <c r="Y30" s="313"/>
+      <c r="Z30" s="313"/>
+      <c r="AA30" s="314"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="113"/>
     </row>
     <row r="31" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -4199,39 +4197,39 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="91"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I31" s="41"/>
       <c r="J31" s="27"/>
       <c r="K31" s="42"/>
       <c r="L31" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="27"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="303"/>
-      <c r="Q31" s="304"/>
-      <c r="R31" s="304"/>
-      <c r="S31" s="309"/>
-      <c r="T31" s="386" t="s">
-        <v>112</v>
-      </c>
-      <c r="U31" s="378"/>
-      <c r="V31" s="378"/>
-      <c r="W31" s="378"/>
-      <c r="X31" s="386"/>
-      <c r="Y31" s="378"/>
-      <c r="Z31" s="378"/>
-      <c r="AA31" s="387"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="116"/>
+      <c r="P31" s="338"/>
+      <c r="Q31" s="340"/>
+      <c r="R31" s="340"/>
+      <c r="S31" s="339"/>
+      <c r="T31" s="363" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" s="364"/>
+      <c r="V31" s="364"/>
+      <c r="W31" s="364"/>
+      <c r="X31" s="363"/>
+      <c r="Y31" s="364"/>
+      <c r="Z31" s="364"/>
+      <c r="AA31" s="365"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="115"/>
     </row>
     <row r="32" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
@@ -4248,41 +4246,41 @@
         <v>28</v>
       </c>
       <c r="F32" s="26"/>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="92"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="92"/>
+      <c r="L32" s="91"/>
       <c r="M32" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="348"/>
-      <c r="Q32" s="349"/>
-      <c r="R32" s="349"/>
-      <c r="S32" s="350"/>
-      <c r="T32" s="377" t="s">
-        <v>116</v>
-      </c>
-      <c r="U32" s="378"/>
-      <c r="V32" s="378"/>
-      <c r="W32" s="378"/>
-      <c r="X32" s="338"/>
-      <c r="Y32" s="307"/>
-      <c r="Z32" s="307"/>
-      <c r="AA32" s="308"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="118"/>
+      <c r="P32" s="379"/>
+      <c r="Q32" s="380"/>
+      <c r="R32" s="380"/>
+      <c r="S32" s="381"/>
+      <c r="T32" s="382" t="s">
+        <v>113</v>
+      </c>
+      <c r="U32" s="364"/>
+      <c r="V32" s="364"/>
+      <c r="W32" s="364"/>
+      <c r="X32" s="330"/>
+      <c r="Y32" s="331"/>
+      <c r="Z32" s="331"/>
+      <c r="AA32" s="354"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="117"/>
     </row>
     <row r="33" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
@@ -4304,19 +4302,19 @@
       <c r="O33" s="54"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="120"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="119"/>
       <c r="T33" s="55"/>
-      <c r="U33" s="121"/>
+      <c r="U33" s="120"/>
       <c r="V33" s="53"/>
       <c r="W33" s="50"/>
       <c r="X33" s="57"/>
       <c r="Z33" s="58"/>
       <c r="AA33" s="59"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="124"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="123"/>
     </row>
     <row r="34" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
@@ -4324,7 +4322,7 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="125">
+      <c r="D34" s="124">
         <v>30</v>
       </c>
       <c r="E34" s="23"/>
@@ -4333,13 +4331,13 @@
         <v>41</v>
       </c>
       <c r="H34" s="65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I34" s="65"/>
       <c r="J34" s="65"/>
       <c r="K34" s="66"/>
       <c r="L34" s="65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M34" s="65"/>
       <c r="N34" s="65"/>
@@ -4347,26 +4345,26 @@
       <c r="P34" s="68"/>
       <c r="Q34" s="68"/>
       <c r="R34" s="35"/>
-      <c r="S34" s="120"/>
+      <c r="S34" s="119"/>
       <c r="T34" s="70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U34" s="71"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="128"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="127"/>
     </row>
     <row r="35" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="22"/>
@@ -4377,44 +4375,44 @@
       <c r="G35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="326" t="s">
+      <c r="H35" s="321" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="322"/>
+      <c r="J35" s="322"/>
+      <c r="K35" s="322"/>
+      <c r="L35" s="323" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="322"/>
+      <c r="N35" s="322"/>
+      <c r="O35" s="324"/>
+      <c r="P35" s="303"/>
+      <c r="Q35" s="304"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="305"/>
+      <c r="T35" s="303" t="s">
+        <v>120</v>
+      </c>
+      <c r="U35" s="304"/>
+      <c r="V35" s="304"/>
+      <c r="W35" s="305"/>
+      <c r="X35" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="304"/>
+      <c r="Z35" s="304"/>
+      <c r="AA35" s="305"/>
+      <c r="AB35" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="327"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="327"/>
-      <c r="L35" s="320" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="327"/>
-      <c r="N35" s="327"/>
-      <c r="O35" s="328"/>
-      <c r="P35" s="310"/>
-      <c r="Q35" s="311"/>
-      <c r="R35" s="311"/>
-      <c r="S35" s="312"/>
-      <c r="T35" s="310" t="s">
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="128"/>
+      <c r="AE35" s="129"/>
+    </row>
+    <row r="36" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="86" t="s">
         <v>123</v>
-      </c>
-      <c r="U35" s="311"/>
-      <c r="V35" s="311"/>
-      <c r="W35" s="312"/>
-      <c r="X35" s="310" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y35" s="311"/>
-      <c r="Z35" s="311"/>
-      <c r="AA35" s="312"/>
-      <c r="AB35" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="130"/>
-    </row>
-    <row r="36" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
-        <v>126</v>
       </c>
       <c r="B36" s="26">
         <v>20</v>
@@ -4425,13 +4423,13 @@
       <c r="D36" s="26">
         <v>3</v>
       </c>
-      <c r="E36" s="131">
+      <c r="E36" s="130">
         <v>1</v>
       </c>
-      <c r="F36" s="131">
+      <c r="F36" s="130">
         <v>12</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
@@ -4444,23 +4442,23 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
       <c r="S36" s="35"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="90"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="89"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="133"/>
-      <c r="AE36" s="134"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="132"/>
+      <c r="AE36" s="133"/>
     </row>
     <row r="37" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="86" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="39"/>
@@ -4468,42 +4466,42 @@
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="91"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="27"/>
       <c r="K37" s="42"/>
       <c r="L37" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="27"/>
       <c r="O37" s="42"/>
-      <c r="P37" s="303"/>
-      <c r="Q37" s="304"/>
-      <c r="R37" s="304"/>
-      <c r="S37" s="309"/>
-      <c r="T37" s="339" t="s">
-        <v>130</v>
-      </c>
-      <c r="U37" s="315"/>
-      <c r="V37" s="315"/>
-      <c r="W37" s="316"/>
-      <c r="X37" s="303" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y37" s="304"/>
-      <c r="Z37" s="304"/>
-      <c r="AA37" s="309"/>
-      <c r="AB37" s="367"/>
-      <c r="AC37" s="368"/>
-      <c r="AD37" s="368"/>
-      <c r="AE37" s="369"/>
+      <c r="P37" s="338"/>
+      <c r="Q37" s="340"/>
+      <c r="R37" s="340"/>
+      <c r="S37" s="339"/>
+      <c r="T37" s="343" t="s">
+        <v>127</v>
+      </c>
+      <c r="U37" s="336"/>
+      <c r="V37" s="336"/>
+      <c r="W37" s="337"/>
+      <c r="X37" s="338" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y37" s="340"/>
+      <c r="Z37" s="340"/>
+      <c r="AA37" s="339"/>
+      <c r="AB37" s="389"/>
+      <c r="AC37" s="390"/>
+      <c r="AD37" s="390"/>
+      <c r="AE37" s="391"/>
     </row>
     <row r="38" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="86" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="26"/>
@@ -4517,46 +4515,46 @@
         <v>15</v>
       </c>
       <c r="F38" s="26"/>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="H38" t="s">
         <v>66</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
       <c r="K38" s="32"/>
-      <c r="L38" s="79" t="s">
+      <c r="L38" t="s">
         <v>66</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="32"/>
       <c r="P38" s="33"/>
-      <c r="Q38" s="370"/>
-      <c r="R38" s="370"/>
+      <c r="Q38" s="392"/>
+      <c r="R38" s="392"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="355" t="s">
-        <v>92</v>
-      </c>
-      <c r="U38" s="356"/>
-      <c r="V38" s="356"/>
-      <c r="W38" s="357"/>
-      <c r="X38" s="371" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y38" s="372"/>
-      <c r="Z38" s="372"/>
-      <c r="AA38" s="373"/>
-      <c r="AB38" s="374" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC38" s="375"/>
-      <c r="AD38" s="375"/>
-      <c r="AE38" s="376"/>
-    </row>
-    <row r="39" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="87" t="s">
+      <c r="T38" s="393" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="394"/>
+      <c r="V38" s="394"/>
+      <c r="W38" s="395"/>
+      <c r="X38" s="396" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y38" s="397"/>
+      <c r="Z38" s="397"/>
+      <c r="AA38" s="398"/>
+      <c r="AB38" s="399" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC38" s="400"/>
+      <c r="AD38" s="400"/>
+      <c r="AE38" s="401"/>
+    </row>
+    <row r="39" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="86" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="48"/>
@@ -4564,7 +4562,7 @@
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
-      <c r="G39" s="138"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="52"/>
       <c r="I39" s="53"/>
       <c r="J39" s="52"/>
@@ -4577,26 +4575,26 @@
       <c r="Q39" s="45"/>
       <c r="R39" s="53"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="342"/>
-      <c r="U39" s="343"/>
-      <c r="V39" s="343"/>
-      <c r="W39" s="344"/>
+      <c r="T39" s="383"/>
+      <c r="U39" s="384"/>
+      <c r="V39" s="384"/>
+      <c r="W39" s="385"/>
       <c r="X39" s="55"/>
       <c r="Y39" s="45"/>
       <c r="Z39" s="53"/>
-      <c r="AA39" s="120"/>
-      <c r="AB39" s="364"/>
-      <c r="AC39" s="365"/>
-      <c r="AD39" s="365"/>
-      <c r="AE39" s="366"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="386"/>
+      <c r="AC39" s="387"/>
+      <c r="AD39" s="387"/>
+      <c r="AE39" s="388"/>
     </row>
     <row r="40" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
-        <v>134</v>
+      <c r="A40" s="101" t="s">
+        <v>131</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="139"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="26">
         <v>29</v>
       </c>
@@ -4621,28 +4619,28 @@
       <c r="R40" s="68"/>
       <c r="S40" s="72"/>
       <c r="T40" s="70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U40" s="63"/>
-      <c r="V40" s="103"/>
+      <c r="V40" s="102"/>
       <c r="W40" s="63"/>
       <c r="X40" s="70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y40" s="71"/>
       <c r="Z40" s="68"/>
       <c r="AA40" s="72"/>
-      <c r="AB40" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC40" s="141"/>
-      <c r="AD40" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE40" s="143"/>
+      <c r="AB40" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="141" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE40" s="142"/>
     </row>
     <row r="41" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="86" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="22"/>
@@ -4651,63 +4649,63 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="326"/>
-      <c r="I41" s="321"/>
-      <c r="J41" s="321"/>
-      <c r="K41" s="321"/>
-      <c r="L41" s="321"/>
-      <c r="M41" s="321"/>
-      <c r="N41" s="321"/>
-      <c r="O41" s="322"/>
-      <c r="P41" s="310"/>
-      <c r="Q41" s="311"/>
-      <c r="R41" s="311"/>
-      <c r="S41" s="312"/>
-      <c r="T41" s="310"/>
-      <c r="U41" s="311"/>
-      <c r="V41" s="311"/>
-      <c r="W41" s="312"/>
-      <c r="X41" s="320" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y41" s="321"/>
-      <c r="Z41" s="321"/>
-      <c r="AA41" s="322"/>
-      <c r="AB41" s="145"/>
-      <c r="AC41" s="145"/>
-      <c r="AD41" s="145"/>
-      <c r="AE41" s="146"/>
+        <v>136</v>
+      </c>
+      <c r="H41" s="321"/>
+      <c r="I41" s="359"/>
+      <c r="J41" s="359"/>
+      <c r="K41" s="359"/>
+      <c r="L41" s="359"/>
+      <c r="M41" s="359"/>
+      <c r="N41" s="359"/>
+      <c r="O41" s="409"/>
+      <c r="P41" s="303"/>
+      <c r="Q41" s="304"/>
+      <c r="R41" s="304"/>
+      <c r="S41" s="305"/>
+      <c r="T41" s="303"/>
+      <c r="U41" s="304"/>
+      <c r="V41" s="304"/>
+      <c r="W41" s="305"/>
+      <c r="X41" s="323" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y41" s="359"/>
+      <c r="Z41" s="359"/>
+      <c r="AA41" s="409"/>
+      <c r="AB41" s="144"/>
+      <c r="AC41" s="144"/>
+      <c r="AD41" s="144"/>
+      <c r="AE41" s="145"/>
     </row>
     <row r="42" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" s="26">
         <v>21</v>
       </c>
-      <c r="C42" s="147">
+      <c r="C42" s="146">
         <v>7</v>
       </c>
       <c r="D42" s="26">
         <v>4</v>
       </c>
-      <c r="E42" s="131">
+      <c r="E42" s="130">
         <v>2</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="130">
         <v>13</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="149"/>
+      <c r="H42" s="148"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="304"/>
-      <c r="K42" s="304"/>
-      <c r="L42" s="304"/>
-      <c r="M42" s="304"/>
+      <c r="J42" s="340"/>
+      <c r="K42" s="340"/>
+      <c r="L42" s="340"/>
+      <c r="M42" s="340"/>
       <c r="N42" s="31"/>
       <c r="O42" s="34"/>
       <c r="P42" s="33"/>
@@ -4718,57 +4716,57 @@
       <c r="U42" s="31"/>
       <c r="V42" s="31"/>
       <c r="W42" s="35"/>
-      <c r="X42" s="150" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y42" s="151"/>
-      <c r="Z42" s="152"/>
-      <c r="AA42" s="153"/>
-      <c r="AB42" s="154"/>
+      <c r="X42" s="149" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="151"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="153"/>
       <c r="AC42" s="29"/>
-      <c r="AD42" s="154"/>
-      <c r="AE42" s="155"/>
+      <c r="AD42" s="153"/>
+      <c r="AE42" s="154"/>
     </row>
     <row r="43" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="363"/>
-      <c r="I43" s="304"/>
-      <c r="J43" s="304"/>
-      <c r="K43" s="304"/>
-      <c r="L43" s="304"/>
-      <c r="M43" s="304"/>
-      <c r="N43" s="304"/>
-      <c r="O43" s="309"/>
-      <c r="P43" s="303"/>
-      <c r="Q43" s="304"/>
-      <c r="R43" s="304"/>
-      <c r="S43" s="309"/>
-      <c r="T43" s="303"/>
-      <c r="U43" s="304"/>
-      <c r="V43" s="304"/>
-      <c r="W43" s="309"/>
-      <c r="X43" s="317" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y43" s="318"/>
-      <c r="Z43" s="318"/>
-      <c r="AA43" s="319"/>
-      <c r="AB43" s="157"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="157"/>
-      <c r="AE43" s="159"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="408"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
+      <c r="K43" s="340"/>
+      <c r="L43" s="340"/>
+      <c r="M43" s="340"/>
+      <c r="N43" s="340"/>
+      <c r="O43" s="339"/>
+      <c r="P43" s="338"/>
+      <c r="Q43" s="340"/>
+      <c r="R43" s="340"/>
+      <c r="S43" s="339"/>
+      <c r="T43" s="338"/>
+      <c r="U43" s="340"/>
+      <c r="V43" s="340"/>
+      <c r="W43" s="339"/>
+      <c r="X43" s="402" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="404"/>
+      <c r="AB43" s="156"/>
+      <c r="AC43" s="157"/>
+      <c r="AD43" s="156"/>
+      <c r="AE43" s="158"/>
     </row>
     <row r="44" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="26">
@@ -4781,8 +4779,8 @@
         <v>16</v>
       </c>
       <c r="F44" s="26"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="156"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="155"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
       <c r="K44" s="35"/>
@@ -4798,14 +4796,14 @@
       <c r="U44" s="29"/>
       <c r="V44" s="31"/>
       <c r="W44" s="35"/>
-      <c r="X44" s="160"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="162"/>
-      <c r="AA44" s="153"/>
-      <c r="AB44" s="154"/>
-      <c r="AC44" s="163"/>
-      <c r="AD44" s="154"/>
-      <c r="AE44" s="164"/>
+      <c r="X44" s="159"/>
+      <c r="Y44" s="160"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="153"/>
+      <c r="AC44" s="162"/>
+      <c r="AD44" s="153"/>
+      <c r="AE44" s="163"/>
     </row>
     <row r="45" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
@@ -4816,15 +4814,15 @@
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="360"/>
-      <c r="I45" s="361"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="361"/>
-      <c r="L45" s="361"/>
-      <c r="M45" s="361"/>
-      <c r="N45" s="361"/>
-      <c r="O45" s="362"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="406"/>
+      <c r="K45" s="406"/>
+      <c r="L45" s="406"/>
+      <c r="M45" s="406"/>
+      <c r="N45" s="406"/>
+      <c r="O45" s="407"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="53"/>
@@ -4833,33 +4831,33 @@
       <c r="U45" s="45"/>
       <c r="V45" s="53"/>
       <c r="W45" s="35"/>
-      <c r="X45" s="165"/>
+      <c r="X45" s="164"/>
       <c r="Y45" s="20"/>
-      <c r="Z45" s="166"/>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="96"/>
+      <c r="Z45" s="165"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="79"/>
+      <c r="AD45" s="79"/>
+      <c r="AE45" s="95"/>
     </row>
     <row r="46" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="C46" s="139"/>
+      <c r="C46" s="138"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26">
         <v>30</v>
       </c>
       <c r="F46" s="62"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="168"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="167"/>
       <c r="I46" s="68"/>
-      <c r="J46" s="105"/>
+      <c r="J46" s="104"/>
       <c r="K46" s="68"/>
       <c r="L46" s="71"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="169"/>
+      <c r="N46" s="168"/>
       <c r="O46" s="67"/>
       <c r="P46" s="35"/>
       <c r="Q46" s="71"/>
@@ -4870,53 +4868,53 @@
       <c r="V46" s="68"/>
       <c r="W46" s="72"/>
       <c r="X46" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y46" s="170"/>
+        <v>116</v>
+      </c>
+      <c r="Y46" s="169"/>
       <c r="Z46" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA46" s="171"/>
-      <c r="AB46" s="85"/>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="172"/>
+        <v>141</v>
+      </c>
+      <c r="AA46" s="170"/>
+      <c r="AB46" s="84"/>
+      <c r="AC46" s="84"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="171"/>
     </row>
     <row r="47" spans="1:31" s="20" customFormat="1" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="173"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="177"/>
-      <c r="M47" s="176"/>
-      <c r="N47" s="177"/>
-      <c r="O47" s="176"/>
-      <c r="P47" s="178"/>
-      <c r="Q47" s="178"/>
-      <c r="R47" s="178"/>
-      <c r="S47" s="179"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="177"/>
+      <c r="Q47" s="177"/>
+      <c r="R47" s="177"/>
+      <c r="S47" s="178"/>
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
-      <c r="Y47" s="175"/>
+      <c r="Y47" s="174"/>
       <c r="Z47" s="16"/>
-      <c r="AA47" s="175"/>
+      <c r="AA47" s="174"/>
       <c r="AB47" s="16"/>
-      <c r="AC47" s="175"/>
+      <c r="AC47" s="174"/>
       <c r="AD47" s="16"/>
-      <c r="AE47" s="180"/>
+      <c r="AE47" s="179"/>
     </row>
     <row r="48" spans="1:31" s="13" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="181" t="s">
+      <c r="A48" s="180" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="22"/>
@@ -4927,40 +4925,40 @@
       <c r="G48" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="326" t="s">
+      <c r="H48" s="321" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="322"/>
+      <c r="J48" s="322"/>
+      <c r="K48" s="322"/>
+      <c r="L48" s="429" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="301"/>
+      <c r="N48" s="301"/>
+      <c r="O48" s="302"/>
+      <c r="P48" s="309" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q48" s="411"/>
+      <c r="R48" s="411"/>
+      <c r="S48" s="412"/>
+      <c r="T48" s="303" t="s">
+        <v>144</v>
+      </c>
+      <c r="U48" s="304"/>
+      <c r="V48" s="304"/>
+      <c r="W48" s="305"/>
+      <c r="X48" s="303"/>
+      <c r="Y48" s="304"/>
+      <c r="Z48" s="304"/>
+      <c r="AA48" s="305"/>
+      <c r="AB48" s="345" t="s">
         <v>145</v>
       </c>
-      <c r="I48" s="327"/>
-      <c r="J48" s="327"/>
-      <c r="K48" s="327"/>
-      <c r="L48" s="320" t="s">
-        <v>145</v>
-      </c>
-      <c r="M48" s="327"/>
-      <c r="N48" s="327"/>
-      <c r="O48" s="328"/>
-      <c r="P48" s="351" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q48" s="352"/>
-      <c r="R48" s="352"/>
-      <c r="S48" s="353"/>
-      <c r="T48" s="310" t="s">
-        <v>147</v>
-      </c>
-      <c r="U48" s="311"/>
-      <c r="V48" s="311"/>
-      <c r="W48" s="312"/>
-      <c r="X48" s="310"/>
-      <c r="Y48" s="311"/>
-      <c r="Z48" s="311"/>
-      <c r="AA48" s="312"/>
-      <c r="AB48" s="336" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC48" s="323"/>
-      <c r="AD48" s="323"/>
-      <c r="AE48" s="324"/>
+      <c r="AC48" s="346"/>
+      <c r="AD48" s="346"/>
+      <c r="AE48" s="410"/>
     </row>
     <row r="49" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
@@ -4969,7 +4967,7 @@
       <c r="B49" s="26">
         <v>9</v>
       </c>
-      <c r="C49" s="131">
+      <c r="C49" s="130">
         <v>9</v>
       </c>
       <c r="D49" s="26">
@@ -4990,22 +4988,22 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="32"/>
-      <c r="P49" s="182"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="184"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="90"/>
+      <c r="P49" s="181"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="183"/>
+      <c r="S49" s="184"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="89"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="31"/>
       <c r="Z49" s="31"/>
-      <c r="AA49" s="120"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="89"/>
-      <c r="AD49" s="80"/>
-      <c r="AE49" s="186"/>
+      <c r="AA49" s="119"/>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="185"/>
     </row>
     <row r="50" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
@@ -5018,45 +5016,45 @@
       <c r="F50" s="23"/>
       <c r="G50" s="40"/>
       <c r="H50" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I50" s="41"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
       <c r="L50" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M50" s="41"/>
       <c r="N50" s="27"/>
       <c r="O50" s="42"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="359" t="s">
-        <v>152</v>
-      </c>
-      <c r="R50" s="359"/>
-      <c r="S50" s="188"/>
-      <c r="T50" s="339" t="s">
-        <v>153</v>
-      </c>
-      <c r="U50" s="315"/>
-      <c r="V50" s="315"/>
-      <c r="W50" s="316"/>
-      <c r="X50" s="303"/>
-      <c r="Y50" s="304"/>
-      <c r="Z50" s="304"/>
-      <c r="AA50" s="309"/>
-      <c r="AB50" s="339" t="s">
+      <c r="P50" s="186"/>
+      <c r="Q50" s="414" t="s">
         <v>149</v>
       </c>
-      <c r="AC50" s="315"/>
-      <c r="AD50" s="315"/>
-      <c r="AE50" s="354"/>
-    </row>
-    <row r="51" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R50" s="414"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="343" t="s">
+        <v>150</v>
+      </c>
+      <c r="U50" s="336"/>
+      <c r="V50" s="336"/>
+      <c r="W50" s="337"/>
+      <c r="X50" s="338"/>
+      <c r="Y50" s="340"/>
+      <c r="Z50" s="340"/>
+      <c r="AA50" s="339"/>
+      <c r="AB50" s="343" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC50" s="336"/>
+      <c r="AD50" s="336"/>
+      <c r="AE50" s="344"/>
+    </row>
+    <row r="51" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="131">
+      <c r="B51" s="130">
         <v>23</v>
       </c>
       <c r="C51" s="26">
@@ -5072,77 +5070,77 @@
       <c r="G51" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="189"/>
+      <c r="H51" s="188"/>
       <c r="I51" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="52"/>
-      <c r="L51" s="92"/>
+      <c r="L51" s="91"/>
       <c r="M51" s="45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N51" s="31"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="190"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="188"/>
-      <c r="T51" s="355" t="s">
+      <c r="P51" s="189"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="187"/>
+      <c r="T51" s="393" t="s">
+        <v>151</v>
+      </c>
+      <c r="U51" s="394"/>
+      <c r="V51" s="394"/>
+      <c r="W51" s="395"/>
+      <c r="X51" s="353"/>
+      <c r="Y51" s="353"/>
+      <c r="Z51" s="353"/>
+      <c r="AA51" s="354"/>
+      <c r="AB51" s="393" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC51" s="394"/>
+      <c r="AD51" s="394"/>
+      <c r="AE51" s="413"/>
+    </row>
+    <row r="52" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="U51" s="356"/>
-      <c r="V51" s="356"/>
-      <c r="W51" s="357"/>
-      <c r="X51" s="332"/>
-      <c r="Y51" s="332"/>
-      <c r="Z51" s="332"/>
-      <c r="AA51" s="308"/>
-      <c r="AB51" s="355" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC51" s="356"/>
-      <c r="AD51" s="356"/>
-      <c r="AE51" s="358"/>
-    </row>
-    <row r="52" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
-      <c r="G52" s="191"/>
+      <c r="G52" s="190"/>
       <c r="H52" s="52"/>
       <c r="I52" s="53"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="192"/>
-      <c r="L52" s="193"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="192"/>
       <c r="M52" s="53"/>
       <c r="N52" s="52"/>
       <c r="O52" s="54"/>
-      <c r="P52" s="182"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="184"/>
-      <c r="S52" s="188"/>
-      <c r="T52" s="342"/>
-      <c r="U52" s="343"/>
-      <c r="V52" s="343"/>
-      <c r="W52" s="344"/>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="183"/>
+      <c r="S52" s="187"/>
+      <c r="T52" s="383"/>
+      <c r="U52" s="384"/>
+      <c r="V52" s="384"/>
+      <c r="W52" s="385"/>
       <c r="X52" s="55"/>
       <c r="Y52" s="45"/>
       <c r="Z52" s="53"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="306"/>
-      <c r="AC52" s="343"/>
-      <c r="AD52" s="343"/>
-      <c r="AE52" s="345"/>
+      <c r="AA52" s="119"/>
+      <c r="AB52" s="334"/>
+      <c r="AC52" s="384"/>
+      <c r="AD52" s="384"/>
+      <c r="AE52" s="415"/>
     </row>
     <row r="53" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
-      <c r="B53" s="194"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
@@ -5151,44 +5149,44 @@
         <v>41</v>
       </c>
       <c r="H53" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
       <c r="K53" s="65"/>
-      <c r="L53" s="195" t="s">
-        <v>159</v>
+      <c r="L53" s="194" t="s">
+        <v>156</v>
       </c>
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
       <c r="O53" s="66"/>
-      <c r="P53" s="104" t="s">
+      <c r="P53" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="107" t="s">
+      <c r="Q53" s="104"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="106" t="s">
         <v>46</v>
       </c>
       <c r="T53" s="70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U53" s="63"/>
-      <c r="V53" s="103"/>
+      <c r="V53" s="102"/>
       <c r="W53" s="63"/>
       <c r="X53" s="70"/>
       <c r="Y53" s="71"/>
       <c r="Z53" s="68"/>
       <c r="AA53" s="72"/>
       <c r="AB53" s="70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AC53" s="63"/>
       <c r="AD53" s="63"/>
-      <c r="AE53" s="196"/>
+      <c r="AE53" s="195"/>
     </row>
     <row r="54" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="197"/>
+      <c r="A54" s="196"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -5197,46 +5195,46 @@
       <c r="G54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="326" t="s">
+      <c r="H54" s="321" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="322"/>
+      <c r="J54" s="322"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="M54" s="143"/>
+      <c r="N54" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="O54" s="199"/>
+      <c r="P54" s="303" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="327"/>
-      <c r="J54" s="327"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="198" t="s">
+      <c r="Q54" s="304"/>
+      <c r="R54" s="304"/>
+      <c r="S54" s="305"/>
+      <c r="T54" s="303" t="s">
         <v>163</v>
       </c>
-      <c r="M54" s="144"/>
-      <c r="N54" s="199" t="s">
+      <c r="U54" s="304"/>
+      <c r="V54" s="304"/>
+      <c r="W54" s="305"/>
+      <c r="X54" s="345" t="s">
         <v>164</v>
       </c>
-      <c r="O54" s="200"/>
-      <c r="P54" s="310" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q54" s="311"/>
-      <c r="R54" s="311"/>
-      <c r="S54" s="312"/>
-      <c r="T54" s="310" t="s">
-        <v>166</v>
-      </c>
-      <c r="U54" s="311"/>
-      <c r="V54" s="311"/>
-      <c r="W54" s="312"/>
-      <c r="X54" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y54" s="323"/>
-      <c r="Z54" s="323"/>
-      <c r="AA54" s="341"/>
-      <c r="AB54" s="310" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC54" s="340"/>
-      <c r="AD54" s="201" t="s">
+      <c r="Y54" s="346"/>
+      <c r="Z54" s="346"/>
+      <c r="AA54" s="347"/>
+      <c r="AB54" s="303" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC54" s="423"/>
+      <c r="AD54" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="AE54" s="202"/>
+      <c r="AE54" s="201"/>
     </row>
     <row r="55" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
@@ -5258,32 +5256,32 @@
         <v>2</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="149"/>
+      <c r="H55" s="148"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="32"/>
       <c r="L55" s="31"/>
       <c r="M55" s="46"/>
       <c r="N55" s="31"/>
-      <c r="O55" s="203"/>
+      <c r="O55" s="202"/>
       <c r="P55" s="33"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="35"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="204"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="79"/>
+      <c r="W55" s="203"/>
       <c r="X55" s="36"/>
       <c r="Y55" s="29"/>
       <c r="Z55" s="37"/>
-      <c r="AA55" s="205"/>
+      <c r="AA55" s="204"/>
       <c r="AB55" s="43"/>
       <c r="AC55" s="42"/>
-      <c r="AD55" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE55" s="207"/>
+      <c r="AD55" s="205" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE55" s="206"/>
     </row>
     <row r="56" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
@@ -5295,48 +5293,48 @@
       <c r="E56" s="39"/>
       <c r="F56" s="23"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="149" t="s">
-        <v>169</v>
+      <c r="H56" s="148" t="s">
+        <v>166</v>
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="27"/>
       <c r="K56" s="42"/>
-      <c r="L56" s="208" t="s">
-        <v>170</v>
+      <c r="L56" s="207" t="s">
+        <v>167</v>
       </c>
       <c r="M56" s="42"/>
       <c r="N56" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O56" s="42"/>
+      <c r="P56" s="338" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q56" s="340"/>
+      <c r="R56" s="340"/>
+      <c r="S56" s="339"/>
+      <c r="T56" s="343" t="s">
+        <v>170</v>
+      </c>
+      <c r="U56" s="336"/>
+      <c r="V56" s="336"/>
+      <c r="W56" s="337"/>
+      <c r="X56" s="338" t="s">
         <v>171</v>
       </c>
-      <c r="O56" s="42"/>
-      <c r="P56" s="303" t="s">
+      <c r="Y56" s="340"/>
+      <c r="Z56" s="340"/>
+      <c r="AA56" s="339"/>
+      <c r="AB56" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="Q56" s="304"/>
-      <c r="R56" s="304"/>
-      <c r="S56" s="309"/>
-      <c r="T56" s="339" t="s">
+      <c r="AC56" s="209"/>
+      <c r="AD56" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="U56" s="315"/>
-      <c r="V56" s="315"/>
-      <c r="W56" s="316"/>
-      <c r="X56" s="303" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y56" s="304"/>
-      <c r="Z56" s="304"/>
-      <c r="AA56" s="309"/>
-      <c r="AB56" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC56" s="210"/>
-      <c r="AD56" s="211" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE56" s="212"/>
-    </row>
-    <row r="57" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE56" s="211"/>
+    </row>
+    <row r="57" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>28</v>
       </c>
@@ -5356,46 +5354,46 @@
       <c r="G57" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="189"/>
-      <c r="I57" s="213" t="s">
-        <v>178</v>
+      <c r="H57" s="188"/>
+      <c r="I57" s="212" t="s">
+        <v>175</v>
       </c>
       <c r="J57" s="31"/>
       <c r="K57" s="32"/>
-      <c r="L57" s="213" t="s">
-        <v>178</v>
+      <c r="L57" s="212" t="s">
+        <v>175</v>
       </c>
       <c r="M57" s="42"/>
       <c r="N57" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O57" s="42"/>
-      <c r="P57" s="338" t="s">
+      <c r="P57" s="330" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="307"/>
-      <c r="R57" s="307"/>
-      <c r="S57" s="307"/>
-      <c r="T57" s="329" t="s">
-        <v>179</v>
-      </c>
-      <c r="U57" s="330"/>
-      <c r="V57" s="330"/>
-      <c r="W57" s="331"/>
-      <c r="X57" s="348" t="s">
+      <c r="Q57" s="331"/>
+      <c r="R57" s="331"/>
+      <c r="S57" s="331"/>
+      <c r="T57" s="367" t="s">
+        <v>176</v>
+      </c>
+      <c r="U57" s="418"/>
+      <c r="V57" s="418"/>
+      <c r="W57" s="419"/>
+      <c r="X57" s="379" t="s">
         <v>37</v>
       </c>
-      <c r="Y57" s="349"/>
-      <c r="Z57" s="349"/>
-      <c r="AA57" s="350"/>
-      <c r="AB57" s="214" t="s">
+      <c r="Y57" s="380"/>
+      <c r="Z57" s="380"/>
+      <c r="AA57" s="381"/>
+      <c r="AB57" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="AC57" s="215"/>
-      <c r="AD57" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE57" s="216"/>
+      <c r="AC57" s="214"/>
+      <c r="AD57" s="147" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE57" s="215"/>
     </row>
     <row r="58" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
@@ -5407,55 +5405,55 @@
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="217"/>
+      <c r="H58" s="216"/>
       <c r="I58" s="53"/>
       <c r="J58" s="52"/>
       <c r="K58" s="54"/>
       <c r="L58" s="52"/>
-      <c r="M58" s="218"/>
+      <c r="M58" s="217"/>
       <c r="N58" s="52"/>
-      <c r="O58" s="218"/>
+      <c r="O58" s="217"/>
       <c r="P58" s="55"/>
       <c r="Q58" s="45"/>
       <c r="R58" s="53"/>
       <c r="S58" s="35"/>
-      <c r="T58" s="333"/>
-      <c r="U58" s="334"/>
-      <c r="V58" s="334"/>
-      <c r="W58" s="335"/>
-      <c r="X58" s="82"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="83"/>
-      <c r="AB58" s="135"/>
-      <c r="AC58" s="219"/>
-      <c r="AD58" s="136"/>
-      <c r="AE58" s="137"/>
+      <c r="T58" s="420"/>
+      <c r="U58" s="421"/>
+      <c r="V58" s="421"/>
+      <c r="W58" s="422"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="82"/>
+      <c r="AB58" s="134"/>
+      <c r="AC58" s="218"/>
+      <c r="AD58" s="135"/>
+      <c r="AE58" s="136"/>
     </row>
     <row r="59" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="125"/>
+      <c r="D59" s="124"/>
       <c r="E59" s="23"/>
       <c r="F59" s="62"/>
       <c r="G59" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="220" t="s">
-        <v>182</v>
+      <c r="H59" s="219" t="s">
+        <v>179</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
       <c r="K59" s="66"/>
       <c r="L59" s="65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M59" s="66"/>
       <c r="N59" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O59" s="67"/>
       <c r="P59" s="35" t="s">
@@ -5465,28 +5463,28 @@
       <c r="R59" s="68"/>
       <c r="S59" s="72"/>
       <c r="T59" s="70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U59" s="63"/>
       <c r="V59" s="63"/>
-      <c r="W59" s="86"/>
+      <c r="W59" s="85"/>
       <c r="X59" s="70" t="s">
         <v>42</v>
       </c>
       <c r="Y59" s="68"/>
-      <c r="Z59" s="85"/>
+      <c r="Z59" s="84"/>
       <c r="AA59" s="63"/>
-      <c r="AB59" s="195" t="s">
+      <c r="AB59" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="AC59" s="221"/>
+      <c r="AC59" s="220"/>
       <c r="AD59" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE59" s="128"/>
+        <v>181</v>
+      </c>
+      <c r="AE59" s="127"/>
     </row>
     <row r="60" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="86" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="22"/>
@@ -5497,43 +5495,43 @@
       <c r="G60" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="326" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="327"/>
-      <c r="J60" s="327"/>
-      <c r="K60" s="327"/>
-      <c r="L60" s="320" t="s">
-        <v>185</v>
-      </c>
-      <c r="M60" s="327"/>
-      <c r="N60" s="327"/>
-      <c r="O60" s="328"/>
-      <c r="P60" s="310" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q60" s="311"/>
-      <c r="R60" s="311"/>
-      <c r="S60" s="312"/>
-      <c r="T60" s="310" t="s">
-        <v>187</v>
-      </c>
-      <c r="U60" s="311"/>
-      <c r="V60" s="311"/>
-      <c r="W60" s="312"/>
-      <c r="X60" s="310" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y60" s="311"/>
-      <c r="Z60" s="311"/>
-      <c r="AA60" s="312"/>
-      <c r="AB60" s="346"/>
-      <c r="AC60" s="347"/>
-      <c r="AD60" s="222"/>
-      <c r="AE60" s="223"/>
+      <c r="H60" s="321" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="322"/>
+      <c r="J60" s="322"/>
+      <c r="K60" s="322"/>
+      <c r="L60" s="323" t="s">
+        <v>182</v>
+      </c>
+      <c r="M60" s="322"/>
+      <c r="N60" s="322"/>
+      <c r="O60" s="324"/>
+      <c r="P60" s="303" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q60" s="304"/>
+      <c r="R60" s="304"/>
+      <c r="S60" s="305"/>
+      <c r="T60" s="303" t="s">
+        <v>184</v>
+      </c>
+      <c r="U60" s="304"/>
+      <c r="V60" s="304"/>
+      <c r="W60" s="305"/>
+      <c r="X60" s="303" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y60" s="304"/>
+      <c r="Z60" s="304"/>
+      <c r="AA60" s="305"/>
+      <c r="AB60" s="416"/>
+      <c r="AC60" s="417"/>
+      <c r="AD60" s="221"/>
+      <c r="AE60" s="222"/>
     </row>
     <row r="61" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="86" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="26">
@@ -5551,8 +5549,8 @@
       <c r="F61" s="26">
         <v>3</v>
       </c>
-      <c r="G61" s="88"/>
-      <c r="H61" s="149"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="148"/>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
       <c r="K61" s="52"/>
@@ -5564,17 +5562,17 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="35"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="89"/>
-      <c r="V61" s="80"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="79"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="31"/>
       <c r="Z61" s="31"/>
-      <c r="AA61" s="120"/>
-      <c r="AB61" s="224"/>
-      <c r="AC61" s="225"/>
-      <c r="AD61" s="226"/>
-      <c r="AE61" s="227"/>
+      <c r="AA61" s="119"/>
+      <c r="AB61" s="223"/>
+      <c r="AC61" s="224"/>
+      <c r="AD61" s="225"/>
+      <c r="AE61" s="226"/>
     </row>
     <row r="62" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
@@ -5585,43 +5583,43 @@
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="149" t="s">
-        <v>188</v>
+      <c r="G62" s="90"/>
+      <c r="H62" s="148" t="s">
+        <v>185</v>
       </c>
       <c r="I62" s="41"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
       <c r="L62" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M62" s="41"/>
       <c r="N62" s="27"/>
       <c r="O62" s="42"/>
-      <c r="P62" s="303" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q62" s="304"/>
-      <c r="R62" s="304"/>
-      <c r="S62" s="309"/>
-      <c r="T62" s="303" t="s">
-        <v>191</v>
-      </c>
-      <c r="U62" s="304"/>
-      <c r="V62" s="304"/>
-      <c r="W62" s="309"/>
-      <c r="X62" s="303" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y62" s="304"/>
-      <c r="Z62" s="304"/>
-      <c r="AA62" s="309"/>
-      <c r="AB62" s="228"/>
-      <c r="AC62" s="229"/>
-      <c r="AD62" s="230"/>
-      <c r="AE62" s="231"/>
-    </row>
-    <row r="63" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P62" s="338" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q62" s="340"/>
+      <c r="R62" s="340"/>
+      <c r="S62" s="339"/>
+      <c r="T62" s="338" t="s">
+        <v>188</v>
+      </c>
+      <c r="U62" s="340"/>
+      <c r="V62" s="340"/>
+      <c r="W62" s="339"/>
+      <c r="X62" s="338" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y62" s="340"/>
+      <c r="Z62" s="340"/>
+      <c r="AA62" s="339"/>
+      <c r="AB62" s="227"/>
+      <c r="AC62" s="228"/>
+      <c r="AD62" s="229"/>
+      <c r="AE62" s="230"/>
+    </row>
+    <row r="63" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>40</v>
       </c>
@@ -5638,59 +5636,59 @@
         <v>20</v>
       </c>
       <c r="F63" s="26"/>
-      <c r="G63" s="232" t="s">
+      <c r="G63" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="189"/>
-      <c r="I63" s="233" t="s">
-        <v>193</v>
+      <c r="H63" s="188"/>
+      <c r="I63" s="232" t="s">
+        <v>190</v>
       </c>
       <c r="J63" s="31"/>
       <c r="K63" s="52"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="233" t="s">
-        <v>193</v>
+      <c r="L63" s="91"/>
+      <c r="M63" s="232" t="s">
+        <v>190</v>
       </c>
       <c r="N63" s="31"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="338" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q63" s="307"/>
-      <c r="R63" s="307"/>
-      <c r="S63" s="307"/>
-      <c r="T63" s="97"/>
-      <c r="U63" s="330" t="s">
-        <v>115</v>
-      </c>
-      <c r="V63" s="337"/>
-      <c r="W63" s="235"/>
-      <c r="X63" s="338" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y63" s="307"/>
-      <c r="Z63" s="307"/>
-      <c r="AA63" s="308"/>
-      <c r="AB63" s="236"/>
-      <c r="AC63" s="237"/>
-      <c r="AD63" s="238"/>
-      <c r="AE63" s="239"/>
-    </row>
-    <row r="64" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="330" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q63" s="331"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="331"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="418" t="s">
+        <v>112</v>
+      </c>
+      <c r="V63" s="424"/>
+      <c r="W63" s="234"/>
+      <c r="X63" s="330" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y63" s="331"/>
+      <c r="Z63" s="331"/>
+      <c r="AA63" s="354"/>
+      <c r="AB63" s="235"/>
+      <c r="AC63" s="236"/>
+      <c r="AD63" s="237"/>
+      <c r="AE63" s="238"/>
+    </row>
+    <row r="64" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
       <c r="E64" s="48"/>
       <c r="F64" s="49"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="217"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="216"/>
       <c r="I64" s="53"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="192"/>
-      <c r="L64" s="193"/>
+      <c r="K64" s="191"/>
+      <c r="L64" s="192"/>
       <c r="M64" s="53"/>
       <c r="N64" s="52"/>
       <c r="O64" s="54"/>
@@ -5698,65 +5696,65 @@
       <c r="Q64" s="45"/>
       <c r="R64" s="53"/>
       <c r="S64" s="35"/>
-      <c r="T64" s="82"/>
-      <c r="U64" s="83"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="82"/>
       <c r="X64" s="55"/>
       <c r="Y64" s="45"/>
       <c r="Z64" s="53"/>
-      <c r="AA64" s="120"/>
-      <c r="AB64" s="240"/>
-      <c r="AC64" s="241"/>
-      <c r="AD64" s="242"/>
-      <c r="AE64" s="243"/>
+      <c r="AA64" s="119"/>
+      <c r="AB64" s="239"/>
+      <c r="AC64" s="240"/>
+      <c r="AD64" s="241"/>
+      <c r="AE64" s="242"/>
     </row>
     <row r="65" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="244"/>
+      <c r="C65" s="243"/>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="220" t="s">
-        <v>194</v>
+      <c r="H65" s="219" t="s">
+        <v>191</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
       <c r="K65" s="65"/>
-      <c r="L65" s="195" t="s">
-        <v>194</v>
+      <c r="L65" s="194" t="s">
+        <v>191</v>
       </c>
       <c r="M65" s="65"/>
       <c r="N65" s="65"/>
       <c r="O65" s="66"/>
       <c r="P65" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q65" s="71"/>
       <c r="R65" s="68"/>
       <c r="S65" s="72"/>
       <c r="T65" s="70" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U65" s="63"/>
-      <c r="V65" s="85"/>
+      <c r="V65" s="84"/>
       <c r="W65" s="63"/>
       <c r="X65" s="70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Y65" s="71"/>
       <c r="Z65" s="68"/>
       <c r="AA65" s="72"/>
-      <c r="AB65" s="245"/>
-      <c r="AC65" s="246"/>
-      <c r="AD65" s="247"/>
-      <c r="AE65" s="248"/>
+      <c r="AB65" s="244"/>
+      <c r="AC65" s="245"/>
+      <c r="AD65" s="246"/>
+      <c r="AE65" s="247"/>
     </row>
     <row r="66" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="197" t="s">
-        <v>106</v>
+      <c r="A66" s="196" t="s">
+        <v>103</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -5766,42 +5764,42 @@
       <c r="G66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="326" t="s">
+      <c r="H66" s="321" t="s">
+        <v>192</v>
+      </c>
+      <c r="I66" s="322"/>
+      <c r="J66" s="322"/>
+      <c r="K66" s="322"/>
+      <c r="L66" s="323" t="s">
+        <v>192</v>
+      </c>
+      <c r="M66" s="322"/>
+      <c r="N66" s="322"/>
+      <c r="O66" s="324"/>
+      <c r="P66" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q66" s="346"/>
+      <c r="R66" s="346"/>
+      <c r="S66" s="346"/>
+      <c r="T66" s="303" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" s="304"/>
+      <c r="V66" s="304"/>
+      <c r="W66" s="305"/>
+      <c r="X66" s="303" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y66" s="304"/>
+      <c r="Z66" s="304"/>
+      <c r="AA66" s="305"/>
+      <c r="AB66" s="303" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="327"/>
-      <c r="J66" s="327"/>
-      <c r="K66" s="327"/>
-      <c r="L66" s="320" t="s">
-        <v>195</v>
-      </c>
-      <c r="M66" s="327"/>
-      <c r="N66" s="327"/>
-      <c r="O66" s="328"/>
-      <c r="P66" s="336" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q66" s="323"/>
-      <c r="R66" s="323"/>
-      <c r="S66" s="323"/>
-      <c r="T66" s="310" t="s">
-        <v>84</v>
-      </c>
-      <c r="U66" s="311"/>
-      <c r="V66" s="311"/>
-      <c r="W66" s="312"/>
-      <c r="X66" s="310" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y66" s="311"/>
-      <c r="Z66" s="311"/>
-      <c r="AA66" s="312"/>
-      <c r="AB66" s="310" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC66" s="311"/>
-      <c r="AD66" s="311"/>
-      <c r="AE66" s="313"/>
+      <c r="AC66" s="304"/>
+      <c r="AD66" s="304"/>
+      <c r="AE66" s="427"/>
     </row>
     <row r="67" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -5822,8 +5820,8 @@
       <c r="F67" s="26">
         <v>4</v>
       </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="149"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="148"/>
       <c r="I67" s="31"/>
       <c r="J67" s="31"/>
       <c r="K67" s="52"/>
@@ -5835,14 +5833,14 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="35"/>
-      <c r="T67" s="82"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="204"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="79"/>
+      <c r="W67" s="203"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="31"/>
       <c r="Z67" s="31"/>
-      <c r="AA67" s="120"/>
+      <c r="AA67" s="119"/>
       <c r="AB67" s="33"/>
       <c r="AC67" s="31"/>
       <c r="AD67" s="31"/>
@@ -5857,43 +5855,43 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="149" t="s">
-        <v>199</v>
+      <c r="G68" s="90"/>
+      <c r="H68" s="148" t="s">
+        <v>196</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
       <c r="L68" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M68" s="41"/>
       <c r="N68" s="27"/>
       <c r="O68" s="42"/>
       <c r="P68" s="33"/>
-      <c r="Q68" s="304" t="s">
+      <c r="Q68" s="340" t="s">
+        <v>198</v>
+      </c>
+      <c r="R68" s="340"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="343" t="s">
+        <v>199</v>
+      </c>
+      <c r="U68" s="336"/>
+      <c r="V68" s="336"/>
+      <c r="W68" s="337"/>
+      <c r="X68" s="338" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y68" s="340"/>
+      <c r="Z68" s="340"/>
+      <c r="AA68" s="339"/>
+      <c r="AB68" s="338" t="s">
         <v>201</v>
       </c>
-      <c r="R68" s="304"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="339" t="s">
-        <v>202</v>
-      </c>
-      <c r="U68" s="315"/>
-      <c r="V68" s="315"/>
-      <c r="W68" s="316"/>
-      <c r="X68" s="303" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y68" s="304"/>
-      <c r="Z68" s="304"/>
-      <c r="AA68" s="309"/>
-      <c r="AB68" s="303" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC68" s="304"/>
-      <c r="AD68" s="304"/>
-      <c r="AE68" s="305"/>
+      <c r="AC68" s="340"/>
+      <c r="AD68" s="340"/>
+      <c r="AE68" s="425"/>
     </row>
     <row r="69" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
@@ -5912,41 +5910,41 @@
         <v>21</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="91" t="s">
+      <c r="G69" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H69" s="189"/>
-      <c r="I69" s="213" t="s">
-        <v>205</v>
+      <c r="H69" s="188"/>
+      <c r="I69" s="212" t="s">
+        <v>202</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="52"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="213" t="s">
-        <v>205</v>
+      <c r="L69" s="91"/>
+      <c r="M69" s="212" t="s">
+        <v>202</v>
       </c>
       <c r="N69" s="31"/>
       <c r="O69" s="32"/>
       <c r="P69" s="33"/>
-      <c r="Q69" s="325" t="s">
-        <v>114</v>
-      </c>
-      <c r="R69" s="325"/>
+      <c r="Q69" s="426" t="s">
+        <v>111</v>
+      </c>
+      <c r="R69" s="426"/>
       <c r="S69" s="35"/>
-      <c r="T69" s="329" t="s">
-        <v>206</v>
-      </c>
-      <c r="U69" s="330"/>
-      <c r="V69" s="330"/>
-      <c r="W69" s="331"/>
-      <c r="X69" s="332" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y69" s="332"/>
-      <c r="Z69" s="332"/>
-      <c r="AA69" s="308"/>
+      <c r="T69" s="367" t="s">
+        <v>203</v>
+      </c>
+      <c r="U69" s="418"/>
+      <c r="V69" s="418"/>
+      <c r="W69" s="419"/>
+      <c r="X69" s="353" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y69" s="353"/>
+      <c r="Z69" s="353"/>
+      <c r="AA69" s="354"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="249" t="s">
+      <c r="AC69" s="431" t="s">
         <v>66</v>
       </c>
       <c r="AD69" s="31"/>
@@ -5962,11 +5960,11 @@
       <c r="E70" s="48"/>
       <c r="F70" s="49"/>
       <c r="G70" s="40"/>
-      <c r="H70" s="217"/>
+      <c r="H70" s="216"/>
       <c r="I70" s="53"/>
       <c r="J70" s="52"/>
-      <c r="K70" s="192"/>
-      <c r="L70" s="193"/>
+      <c r="K70" s="191"/>
+      <c r="L70" s="192"/>
       <c r="M70" s="53"/>
       <c r="N70" s="52"/>
       <c r="O70" s="54"/>
@@ -5974,14 +5972,14 @@
       <c r="Q70" s="45"/>
       <c r="R70" s="53"/>
       <c r="S70" s="35"/>
-      <c r="T70" s="333"/>
-      <c r="U70" s="334"/>
-      <c r="V70" s="334"/>
-      <c r="W70" s="335"/>
+      <c r="T70" s="420"/>
+      <c r="U70" s="421"/>
+      <c r="V70" s="421"/>
+      <c r="W70" s="422"/>
       <c r="X70" s="55"/>
       <c r="Y70" s="45"/>
       <c r="Z70" s="53"/>
-      <c r="AA70" s="120"/>
+      <c r="AA70" s="119"/>
       <c r="AB70" s="55"/>
       <c r="AC70" s="45"/>
       <c r="AD70" s="53"/>
@@ -5989,7 +5987,7 @@
     </row>
     <row r="71" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B71" s="62"/>
       <c r="C71" s="62"/>
@@ -5999,32 +5997,32 @@
       <c r="G71" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H71" s="220" t="s">
-        <v>209</v>
+      <c r="H71" s="219" t="s">
+        <v>206</v>
       </c>
       <c r="I71" s="65"/>
       <c r="J71" s="65"/>
       <c r="K71" s="65"/>
-      <c r="L71" s="195" t="s">
-        <v>209</v>
+      <c r="L71" s="194" t="s">
+        <v>206</v>
       </c>
       <c r="M71" s="65"/>
       <c r="N71" s="65"/>
       <c r="O71" s="66"/>
       <c r="P71" s="70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q71" s="68"/>
       <c r="R71" s="68"/>
       <c r="S71" s="68"/>
       <c r="T71" s="70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U71" s="63"/>
       <c r="V71" s="63"/>
-      <c r="W71" s="86"/>
+      <c r="W71" s="85"/>
       <c r="X71" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Y71" s="71"/>
       <c r="Z71" s="68"/>
@@ -6048,42 +6046,42 @@
       <c r="G72" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="326" t="s">
-        <v>212</v>
-      </c>
-      <c r="I72" s="327"/>
-      <c r="J72" s="327"/>
-      <c r="K72" s="327"/>
-      <c r="L72" s="320" t="s">
-        <v>212</v>
-      </c>
-      <c r="M72" s="327"/>
-      <c r="N72" s="327"/>
-      <c r="O72" s="328"/>
-      <c r="P72" s="310"/>
-      <c r="Q72" s="311"/>
-      <c r="R72" s="311"/>
-      <c r="S72" s="312"/>
-      <c r="T72" s="310" t="s">
-        <v>213</v>
-      </c>
-      <c r="U72" s="311"/>
-      <c r="V72" s="311"/>
-      <c r="W72" s="312"/>
-      <c r="X72" s="310" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y72" s="311"/>
-      <c r="Z72" s="311"/>
-      <c r="AA72" s="312"/>
-      <c r="AB72" s="310"/>
-      <c r="AC72" s="311"/>
-      <c r="AD72" s="311"/>
-      <c r="AE72" s="313"/>
+      <c r="H72" s="321" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" s="322"/>
+      <c r="J72" s="322"/>
+      <c r="K72" s="322"/>
+      <c r="L72" s="323" t="s">
+        <v>209</v>
+      </c>
+      <c r="M72" s="322"/>
+      <c r="N72" s="322"/>
+      <c r="O72" s="324"/>
+      <c r="P72" s="303"/>
+      <c r="Q72" s="304"/>
+      <c r="R72" s="304"/>
+      <c r="S72" s="305"/>
+      <c r="T72" s="303" t="s">
+        <v>210</v>
+      </c>
+      <c r="U72" s="304"/>
+      <c r="V72" s="304"/>
+      <c r="W72" s="305"/>
+      <c r="X72" s="303" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y72" s="304"/>
+      <c r="Z72" s="304"/>
+      <c r="AA72" s="305"/>
+      <c r="AB72" s="303"/>
+      <c r="AC72" s="304"/>
+      <c r="AD72" s="304"/>
+      <c r="AE72" s="427"/>
     </row>
     <row r="73" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="26">
         <v>13</v>
@@ -6100,8 +6098,8 @@
       <c r="F73" s="26">
         <v>5</v>
       </c>
-      <c r="G73" s="88"/>
-      <c r="H73" s="149"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="148"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31"/>
       <c r="K73" s="52"/>
@@ -6113,14 +6111,14 @@
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="35"/>
-      <c r="T73" s="250"/>
-      <c r="U73" s="251"/>
-      <c r="V73" s="252"/>
-      <c r="W73" s="253"/>
+      <c r="T73" s="248"/>
+      <c r="U73" s="249"/>
+      <c r="V73" s="250"/>
+      <c r="W73" s="251"/>
       <c r="X73" s="33"/>
       <c r="Y73" s="31"/>
       <c r="Z73" s="31"/>
-      <c r="AA73" s="120"/>
+      <c r="AA73" s="119"/>
       <c r="AB73" s="33"/>
       <c r="AC73" s="31"/>
       <c r="AD73" s="31"/>
@@ -6135,41 +6133,41 @@
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="149" t="s">
-        <v>215</v>
+      <c r="G74" s="90"/>
+      <c r="H74" s="148" t="s">
+        <v>212</v>
       </c>
       <c r="I74" s="41"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
       <c r="L74" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M74" s="41"/>
       <c r="N74" s="27"/>
       <c r="O74" s="42"/>
-      <c r="P74" s="303"/>
-      <c r="Q74" s="304"/>
-      <c r="R74" s="304"/>
-      <c r="S74" s="309"/>
-      <c r="T74" s="303" t="s">
-        <v>217</v>
-      </c>
-      <c r="U74" s="304"/>
-      <c r="V74" s="304"/>
-      <c r="W74" s="309"/>
-      <c r="X74" s="303" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y74" s="304"/>
-      <c r="Z74" s="304"/>
-      <c r="AA74" s="309"/>
-      <c r="AB74" s="303"/>
-      <c r="AC74" s="304"/>
-      <c r="AD74" s="304"/>
-      <c r="AE74" s="305"/>
-    </row>
-    <row r="75" spans="1:31" s="80" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P74" s="338"/>
+      <c r="Q74" s="340"/>
+      <c r="R74" s="340"/>
+      <c r="S74" s="339"/>
+      <c r="T74" s="338" t="s">
+        <v>214</v>
+      </c>
+      <c r="U74" s="340"/>
+      <c r="V74" s="340"/>
+      <c r="W74" s="339"/>
+      <c r="X74" s="338" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y74" s="340"/>
+      <c r="Z74" s="340"/>
+      <c r="AA74" s="339"/>
+      <c r="AB74" s="338"/>
+      <c r="AC74" s="340"/>
+      <c r="AD74" s="340"/>
+      <c r="AE74" s="425"/>
+    </row>
+    <row r="75" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>29</v>
       </c>
@@ -6186,18 +6184,18 @@
         <v>22</v>
       </c>
       <c r="F75" s="26"/>
-      <c r="G75" s="232" t="s">
+      <c r="G75" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="189"/>
-      <c r="I75" s="213" t="s">
-        <v>219</v>
+      <c r="H75" s="188"/>
+      <c r="I75" s="212" t="s">
+        <v>216</v>
       </c>
       <c r="J75" s="31"/>
       <c r="K75" s="52"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="213" t="s">
-        <v>219</v>
+      <c r="L75" s="91"/>
+      <c r="M75" s="212" t="s">
+        <v>216</v>
       </c>
       <c r="N75" s="31"/>
       <c r="O75" s="32"/>
@@ -6205,18 +6203,18 @@
       <c r="Q75" s="29"/>
       <c r="R75" s="31"/>
       <c r="S75" s="35"/>
-      <c r="T75" s="254"/>
+      <c r="T75" s="252"/>
       <c r="U75" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V75" s="255"/>
-      <c r="W75" s="252"/>
-      <c r="X75" s="306" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y75" s="307"/>
-      <c r="Z75" s="307"/>
-      <c r="AA75" s="308"/>
+        <v>217</v>
+      </c>
+      <c r="V75" s="253"/>
+      <c r="W75" s="250"/>
+      <c r="X75" s="334" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y75" s="331"/>
+      <c r="Z75" s="331"/>
+      <c r="AA75" s="354"/>
       <c r="AB75" s="33"/>
       <c r="AC75" s="29"/>
       <c r="AD75" s="31"/>
@@ -6232,11 +6230,11 @@
       <c r="E76" s="48"/>
       <c r="F76" s="49"/>
       <c r="G76" s="40"/>
-      <c r="H76" s="217"/>
+      <c r="H76" s="216"/>
       <c r="I76" s="53"/>
       <c r="J76" s="52"/>
-      <c r="K76" s="192"/>
-      <c r="L76" s="193"/>
+      <c r="K76" s="191"/>
+      <c r="L76" s="192"/>
       <c r="M76" s="53"/>
       <c r="N76" s="52"/>
       <c r="O76" s="54"/>
@@ -6244,14 +6242,14 @@
       <c r="Q76" s="45"/>
       <c r="R76" s="53"/>
       <c r="S76" s="35"/>
-      <c r="T76" s="256"/>
-      <c r="U76" s="257"/>
-      <c r="V76" s="258"/>
-      <c r="W76" s="253"/>
+      <c r="T76" s="254"/>
+      <c r="U76" s="255"/>
+      <c r="V76" s="256"/>
+      <c r="W76" s="251"/>
       <c r="X76" s="55"/>
       <c r="Y76" s="45"/>
       <c r="Z76" s="53"/>
-      <c r="AA76" s="120"/>
+      <c r="AA76" s="119"/>
       <c r="AB76" s="55"/>
       <c r="AC76" s="45"/>
       <c r="AD76" s="53"/>
@@ -6259,24 +6257,24 @@
     </row>
     <row r="77" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B77" s="62"/>
       <c r="C77" s="62"/>
-      <c r="D77" s="259"/>
+      <c r="D77" s="257"/>
       <c r="E77" s="62"/>
       <c r="F77" s="62"/>
       <c r="G77" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H77" s="220" t="s">
-        <v>222</v>
+      <c r="H77" s="219" t="s">
+        <v>219</v>
       </c>
       <c r="I77" s="65"/>
       <c r="J77" s="65"/>
       <c r="K77" s="65"/>
-      <c r="L77" s="195" t="s">
-        <v>222</v>
+      <c r="L77" s="194" t="s">
+        <v>219</v>
       </c>
       <c r="M77" s="65"/>
       <c r="N77" s="65"/>
@@ -6286,13 +6284,13 @@
       <c r="R77" s="68"/>
       <c r="S77" s="72"/>
       <c r="T77" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="U77" s="260"/>
-      <c r="V77" s="261"/>
-      <c r="W77" s="262"/>
+        <v>220</v>
+      </c>
+      <c r="U77" s="258"/>
+      <c r="V77" s="259"/>
+      <c r="W77" s="260"/>
       <c r="X77" s="70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y77" s="71"/>
       <c r="Z77" s="68"/>
@@ -6312,36 +6310,36 @@
       <c r="E78" s="23"/>
       <c r="F78" s="22"/>
       <c r="G78" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H78" s="263"/>
-      <c r="I78" s="264"/>
-      <c r="J78" s="311"/>
-      <c r="K78" s="311"/>
-      <c r="L78" s="311"/>
-      <c r="M78" s="311"/>
-      <c r="N78" s="265"/>
-      <c r="O78" s="266"/>
-      <c r="P78" s="267"/>
-      <c r="Q78" s="268"/>
-      <c r="R78" s="269"/>
-      <c r="S78" s="270"/>
-      <c r="T78" s="271"/>
-      <c r="U78" s="272"/>
-      <c r="V78" s="273"/>
-      <c r="W78" s="274"/>
-      <c r="X78" s="320"/>
-      <c r="Y78" s="321"/>
-      <c r="Z78" s="321"/>
-      <c r="AA78" s="322"/>
-      <c r="AB78" s="323"/>
-      <c r="AC78" s="323"/>
-      <c r="AD78" s="323"/>
-      <c r="AE78" s="324"/>
+        <v>136</v>
+      </c>
+      <c r="H78" s="261"/>
+      <c r="I78" s="262"/>
+      <c r="J78" s="304"/>
+      <c r="K78" s="304"/>
+      <c r="L78" s="304"/>
+      <c r="M78" s="304"/>
+      <c r="N78" s="263"/>
+      <c r="O78" s="264"/>
+      <c r="P78" s="265"/>
+      <c r="Q78" s="266"/>
+      <c r="R78" s="267"/>
+      <c r="S78" s="268"/>
+      <c r="T78" s="269"/>
+      <c r="U78" s="270"/>
+      <c r="V78" s="271"/>
+      <c r="W78" s="272"/>
+      <c r="X78" s="323"/>
+      <c r="Y78" s="359"/>
+      <c r="Z78" s="359"/>
+      <c r="AA78" s="409"/>
+      <c r="AB78" s="346"/>
+      <c r="AC78" s="346"/>
+      <c r="AD78" s="346"/>
+      <c r="AE78" s="410"/>
     </row>
     <row r="79" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B79" s="26">
         <v>14</v>
@@ -6352,76 +6350,76 @@
       <c r="D79" s="26">
         <v>11</v>
       </c>
-      <c r="E79" s="131">
+      <c r="E79" s="130">
         <v>9</v>
       </c>
       <c r="F79" s="26">
         <v>6</v>
       </c>
-      <c r="G79" s="88" t="s">
+      <c r="G79" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="275"/>
-      <c r="I79" s="275"/>
-      <c r="J79" s="275"/>
-      <c r="K79" s="275"/>
-      <c r="L79" s="276"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="276"/>
-      <c r="O79" s="277"/>
-      <c r="P79" s="278"/>
+      <c r="H79" s="273"/>
+      <c r="I79" s="273"/>
+      <c r="J79" s="273"/>
+      <c r="K79" s="273"/>
+      <c r="L79" s="274"/>
+      <c r="M79" s="150"/>
+      <c r="N79" s="274"/>
+      <c r="O79" s="275"/>
+      <c r="P79" s="276"/>
       <c r="Q79" s="53"/>
-      <c r="R79" s="279"/>
-      <c r="S79" s="120"/>
-      <c r="T79" s="280"/>
-      <c r="U79" s="89"/>
-      <c r="V79" s="80"/>
-      <c r="X79" s="150"/>
-      <c r="Y79" s="151"/>
-      <c r="Z79" s="152"/>
-      <c r="AA79" s="153"/>
+      <c r="R79" s="277"/>
+      <c r="S79" s="119"/>
+      <c r="T79" s="278"/>
+      <c r="U79" s="88"/>
+      <c r="V79" s="79"/>
+      <c r="X79" s="149"/>
+      <c r="Y79" s="150"/>
+      <c r="Z79" s="151"/>
+      <c r="AA79" s="152"/>
       <c r="AB79" s="31"/>
       <c r="AC79" s="31"/>
       <c r="AD79" s="31"/>
-      <c r="AE79" s="281"/>
+      <c r="AE79" s="279"/>
     </row>
     <row r="80" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="314"/>
-      <c r="I80" s="315"/>
-      <c r="J80" s="315"/>
-      <c r="K80" s="315"/>
-      <c r="L80" s="315"/>
-      <c r="M80" s="315"/>
-      <c r="N80" s="315"/>
-      <c r="O80" s="316"/>
-      <c r="P80" s="282"/>
-      <c r="Q80" s="283"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="428"/>
+      <c r="I80" s="336"/>
+      <c r="J80" s="336"/>
+      <c r="K80" s="336"/>
+      <c r="L80" s="336"/>
+      <c r="M80" s="336"/>
+      <c r="N80" s="336"/>
+      <c r="O80" s="337"/>
+      <c r="P80" s="280"/>
+      <c r="Q80" s="281"/>
       <c r="R80" s="35"/>
-      <c r="S80" s="120"/>
-      <c r="T80" s="97"/>
-      <c r="U80" s="284"/>
-      <c r="V80" s="98"/>
-      <c r="X80" s="317"/>
-      <c r="Y80" s="318"/>
-      <c r="Z80" s="318"/>
-      <c r="AA80" s="319"/>
-      <c r="AB80" s="304"/>
-      <c r="AC80" s="304"/>
-      <c r="AD80" s="304"/>
-      <c r="AE80" s="305"/>
+      <c r="S80" s="119"/>
+      <c r="T80" s="96"/>
+      <c r="U80" s="282"/>
+      <c r="V80" s="97"/>
+      <c r="X80" s="402"/>
+      <c r="Y80" s="403"/>
+      <c r="Z80" s="403"/>
+      <c r="AA80" s="404"/>
+      <c r="AB80" s="340"/>
+      <c r="AC80" s="340"/>
+      <c r="AD80" s="340"/>
+      <c r="AE80" s="425"/>
     </row>
     <row r="81" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B81" s="26">
         <v>28</v>
@@ -6436,30 +6434,30 @@
         <v>23</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="275"/>
-      <c r="I81" s="275"/>
-      <c r="J81" s="275"/>
-      <c r="K81" s="285"/>
-      <c r="L81" s="286"/>
-      <c r="M81" s="161"/>
-      <c r="N81" s="286"/>
-      <c r="O81" s="277"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="273"/>
+      <c r="I81" s="273"/>
+      <c r="J81" s="273"/>
+      <c r="K81" s="283"/>
+      <c r="L81" s="284"/>
+      <c r="M81" s="160"/>
+      <c r="N81" s="284"/>
+      <c r="O81" s="275"/>
       <c r="P81" s="55"/>
       <c r="Q81" s="53"/>
       <c r="R81" s="53"/>
-      <c r="S81" s="120"/>
-      <c r="T81" s="287"/>
-      <c r="U81" s="284"/>
-      <c r="V81" s="288"/>
-      <c r="X81" s="160"/>
-      <c r="Y81" s="161"/>
-      <c r="Z81" s="162"/>
-      <c r="AA81" s="153"/>
+      <c r="S81" s="119"/>
+      <c r="T81" s="285"/>
+      <c r="U81" s="282"/>
+      <c r="V81" s="286"/>
+      <c r="X81" s="159"/>
+      <c r="Y81" s="160"/>
+      <c r="Z81" s="161"/>
+      <c r="AA81" s="152"/>
       <c r="AB81" s="29"/>
       <c r="AC81" s="31"/>
       <c r="AD81" s="29"/>
-      <c r="AE81" s="281"/>
+      <c r="AE81" s="279"/>
     </row>
     <row r="82" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
@@ -6471,25 +6469,25 @@
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
       <c r="G82" s="51"/>
-      <c r="H82" s="275"/>
-      <c r="I82" s="234"/>
-      <c r="J82" s="275"/>
-      <c r="K82" s="234"/>
-      <c r="L82" s="289"/>
-      <c r="M82" s="290"/>
-      <c r="N82" s="289"/>
-      <c r="O82" s="291"/>
-      <c r="P82" s="282"/>
+      <c r="H82" s="273"/>
+      <c r="I82" s="233"/>
+      <c r="J82" s="273"/>
+      <c r="K82" s="233"/>
+      <c r="L82" s="287"/>
+      <c r="M82" s="288"/>
+      <c r="N82" s="287"/>
+      <c r="O82" s="289"/>
+      <c r="P82" s="280"/>
       <c r="Q82" s="45"/>
       <c r="R82" s="35"/>
-      <c r="S82" s="120"/>
-      <c r="T82" s="292"/>
+      <c r="S82" s="119"/>
+      <c r="T82" s="290"/>
       <c r="U82" s="20"/>
-      <c r="V82" s="293"/>
-      <c r="X82" s="165"/>
+      <c r="V82" s="291"/>
+      <c r="X82" s="164"/>
       <c r="Y82" s="20"/>
-      <c r="Z82" s="166"/>
-      <c r="AA82" s="167"/>
+      <c r="Z82" s="165"/>
+      <c r="AA82" s="166"/>
       <c r="AB82" s="53"/>
       <c r="AC82" s="35"/>
       <c r="AD82" s="53"/>
@@ -6501,40 +6499,40 @@
       </c>
       <c r="B83" s="62"/>
       <c r="C83" s="62"/>
-      <c r="D83" s="259"/>
+      <c r="D83" s="257"/>
       <c r="E83" s="62"/>
       <c r="F83" s="62"/>
       <c r="G83" s="64"/>
       <c r="H83" s="71"/>
-      <c r="I83" s="294"/>
-      <c r="J83" s="294"/>
-      <c r="K83" s="294"/>
-      <c r="L83" s="295"/>
-      <c r="M83" s="296"/>
-      <c r="N83" s="295"/>
-      <c r="O83" s="297"/>
-      <c r="P83" s="298"/>
+      <c r="I83" s="292"/>
+      <c r="J83" s="292"/>
+      <c r="K83" s="292"/>
+      <c r="L83" s="293"/>
+      <c r="M83" s="294"/>
+      <c r="N83" s="293"/>
+      <c r="O83" s="295"/>
+      <c r="P83" s="296"/>
       <c r="Q83" s="71"/>
       <c r="R83" s="71"/>
       <c r="S83" s="72"/>
-      <c r="T83" s="299"/>
+      <c r="T83" s="297"/>
       <c r="U83" s="63"/>
       <c r="V83" s="63"/>
       <c r="W83" s="63"/>
       <c r="X83" s="70"/>
-      <c r="Y83" s="170"/>
+      <c r="Y83" s="169"/>
       <c r="Z83" s="68"/>
-      <c r="AA83" s="171"/>
+      <c r="AA83" s="170"/>
       <c r="AB83" s="71"/>
       <c r="AC83" s="68"/>
       <c r="AD83" s="71"/>
       <c r="AE83" s="77"/>
     </row>
     <row r="84" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="300"/>
-      <c r="B84" s="300"/>
-      <c r="C84" s="300"/>
-      <c r="D84" s="300"/>
+      <c r="A84" s="298"/>
+      <c r="B84" s="298"/>
+      <c r="C84" s="298"/>
+      <c r="D84" s="298"/>
     </row>
     <row r="85" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -6542,13 +6540,13 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="N85" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="6"/>
       <c r="W85" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="4"/>
@@ -6560,13 +6558,13 @@
       <c r="D86" s="1"/>
       <c r="E86"/>
       <c r="N86" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="6"/>
       <c r="W86" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="4"/>
@@ -6728,34 +6726,126 @@
       <c r="D108" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
+  <mergeCells count="167">
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="X75:AA75"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="X72:AA72"/>
+    <mergeCell ref="AB72:AE72"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="X80:AA80"/>
+    <mergeCell ref="AB80:AE80"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="X78:AA78"/>
+    <mergeCell ref="AB78:AE78"/>
+    <mergeCell ref="AB68:AE68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="X66:AA66"/>
+    <mergeCell ref="AB66:AE66"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="X69:AA69"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="X63:AA63"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="X68:AA68"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="T62:W62"/>
+    <mergeCell ref="X62:AA62"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="X60:AA60"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="X48:AA48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="AB51:AE51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="X50:AA50"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AA26"/>
     <mergeCell ref="P19:S19"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
@@ -6776,148 +6866,49 @@
     <mergeCell ref="T23:W23"/>
     <mergeCell ref="X23:AA23"/>
     <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
     <mergeCell ref="P17:S17"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="X48:AA48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="X51:AA51"/>
-    <mergeCell ref="AB51:AE51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="X50:AA50"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="X60:AA60"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="X63:AA63"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="X68:AA68"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="T62:W62"/>
-    <mergeCell ref="X62:AA62"/>
-    <mergeCell ref="P63:S63"/>
-    <mergeCell ref="AB68:AE68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="X66:AA66"/>
-    <mergeCell ref="AB66:AE66"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="X69:AA69"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="X75:AA75"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="X72:AA72"/>
-    <mergeCell ref="AB72:AE72"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="X80:AA80"/>
-    <mergeCell ref="AB80:AE80"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="X78:AA78"/>
-    <mergeCell ref="AB78:AE78"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U63" r:id="rId1" display="oxabra@yandex.ru"/>
     <hyperlink ref="T32" r:id="rId2"/>
-    <hyperlink ref="H20" r:id="rId3" display="mailto:seregy.orlov@mail.ru"/>
-    <hyperlink ref="L20" r:id="rId4" display="mailto:seregy.orlov@mail.ru"/>
-    <hyperlink ref="H38" r:id="rId5" display="mailto:seregy.orlov@mail.ru"/>
-    <hyperlink ref="L38" r:id="rId6" display="mailto:seregy.orlov@mail.ru"/>
-    <hyperlink ref="V22" r:id="rId7" display="mailto:dnl@volpi.ru"/>
-    <hyperlink ref="T26" r:id="rId8"/>
-    <hyperlink ref="T57" r:id="rId9" display="mailto:taniaMatveeva@yandex.ru"/>
-    <hyperlink ref="AC69" r:id="rId10" display="mailto:seregy.orlov@mail.ru"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="AB14" r:id="rId12"/>
-    <hyperlink ref="AB25" r:id="rId13"/>
-    <hyperlink ref="X75" r:id="rId14"/>
+    <hyperlink ref="V22" r:id="rId3" display="mailto:dnl@volpi.ru"/>
+    <hyperlink ref="T26" r:id="rId4"/>
+    <hyperlink ref="T57" r:id="rId5" display="mailto:taniaMatveeva@yandex.ru"/>
+    <hyperlink ref="AC69" r:id="rId6" display="mailto:seregy.orlov@mail.ru"/>
+    <hyperlink ref="H14" r:id="rId7"/>
+    <hyperlink ref="AB14" r:id="rId8"/>
+    <hyperlink ref="AB25" r:id="rId9"/>
+    <hyperlink ref="X75" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.6692913385826772" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId15"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId11"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/www/tests/parser/TestPostalTutorials.xlsx
+++ b/www/tests/parser/TestPostalTutorials.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="232">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -706,21 +706,13 @@
     <t>с 18:00</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Теория автом. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>c 18:00</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">15.04,13.05(3ч)   </t>
+  </si>
+  <si>
+    <t>Теория автом.</t>
+  </si>
+  <si>
+    <t>c 18:00</t>
   </si>
 </sst>
 </file>
@@ -2304,6 +2296,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2312,6 +2334,309 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,30 +2647,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2354,21 +2655,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2384,300 +2670,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2987,8 +2979,8 @@
   </sheetPr>
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3172,42 +3164,42 @@
       <c r="G9" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="327" t="s">
+      <c r="H9" s="429" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="318"/>
-      <c r="J9" s="318"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="317" t="s">
+      <c r="I9" s="425"/>
+      <c r="J9" s="425"/>
+      <c r="K9" s="426"/>
+      <c r="L9" s="424" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="318"/>
-      <c r="N9" s="318"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="317" t="s">
+      <c r="M9" s="425"/>
+      <c r="N9" s="425"/>
+      <c r="O9" s="426"/>
+      <c r="P9" s="424" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="328"/>
-      <c r="R9" s="328"/>
-      <c r="S9" s="329"/>
-      <c r="T9" s="327" t="s">
+      <c r="Q9" s="430"/>
+      <c r="R9" s="430"/>
+      <c r="S9" s="431"/>
+      <c r="T9" s="429" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="318"/>
-      <c r="V9" s="318"/>
-      <c r="W9" s="319"/>
-      <c r="X9" s="317" t="s">
+      <c r="U9" s="425"/>
+      <c r="V9" s="425"/>
+      <c r="W9" s="426"/>
+      <c r="X9" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="318"/>
-      <c r="Z9" s="318"/>
-      <c r="AA9" s="319"/>
-      <c r="AB9" s="317" t="s">
+      <c r="Y9" s="425"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="426"/>
+      <c r="AB9" s="424" t="s">
         <v>21</v>
       </c>
-      <c r="AC9" s="318"/>
-      <c r="AD9" s="318"/>
-      <c r="AE9" s="319"/>
+      <c r="AC9" s="425"/>
+      <c r="AD9" s="425"/>
+      <c r="AE9" s="426"/>
     </row>
     <row r="10" spans="1:31" s="20" customFormat="1" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
@@ -3256,40 +3248,40 @@
       <c r="G11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="321" t="s">
+      <c r="H11" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="330"/>
+      <c r="K11" s="330"/>
       <c r="L11" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="322"/>
-      <c r="N11" s="322"/>
-      <c r="O11" s="324"/>
-      <c r="P11" s="325" t="s">
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="427" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="326"/>
-      <c r="R11" s="303" t="s">
+      <c r="Q11" s="428"/>
+      <c r="R11" s="313" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="305"/>
-      <c r="T11" s="303"/>
-      <c r="U11" s="304"/>
-      <c r="V11" s="304"/>
-      <c r="W11" s="305"/>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="307"/>
-      <c r="Z11" s="307"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="309" t="s">
+      <c r="S11" s="315"/>
+      <c r="T11" s="313"/>
+      <c r="U11" s="314"/>
+      <c r="V11" s="314"/>
+      <c r="W11" s="315"/>
+      <c r="X11" s="421"/>
+      <c r="Y11" s="422"/>
+      <c r="Z11" s="422"/>
+      <c r="AA11" s="423"/>
+      <c r="AB11" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="310"/>
-      <c r="AD11" s="310"/>
-      <c r="AE11" s="311"/>
+      <c r="AC11" s="401"/>
+      <c r="AD11" s="401"/>
+      <c r="AE11" s="402"/>
     </row>
     <row r="12" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
@@ -3323,18 +3315,18 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="31"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="312"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="313"/>
-      <c r="W12" s="314"/>
+      <c r="T12" s="393"/>
+      <c r="U12" s="394"/>
+      <c r="V12" s="394"/>
+      <c r="W12" s="395"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="315"/>
-      <c r="AC12" s="316"/>
-      <c r="AD12" s="316"/>
-      <c r="AE12" s="320"/>
+      <c r="AB12" s="416"/>
+      <c r="AC12" s="417"/>
+      <c r="AD12" s="417"/>
+      <c r="AE12" s="418"/>
     </row>
     <row r="13" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
@@ -3358,28 +3350,28 @@
       <c r="M13" s="41"/>
       <c r="N13" s="27"/>
       <c r="O13" s="42"/>
-      <c r="P13" s="338" t="s">
+      <c r="P13" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="339"/>
-      <c r="R13" s="338" t="s">
+      <c r="Q13" s="312"/>
+      <c r="R13" s="306" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="339"/>
-      <c r="T13" s="338"/>
-      <c r="U13" s="340"/>
-      <c r="V13" s="340"/>
-      <c r="W13" s="339"/>
+      <c r="S13" s="312"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="312"/>
       <c r="X13" s="44"/>
-      <c r="Y13" s="341"/>
-      <c r="Z13" s="341"/>
-      <c r="AA13" s="342"/>
-      <c r="AB13" s="343" t="s">
+      <c r="Y13" s="419"/>
+      <c r="Z13" s="419"/>
+      <c r="AA13" s="420"/>
+      <c r="AB13" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" s="336"/>
-      <c r="AD13" s="336"/>
-      <c r="AE13" s="344"/>
+      <c r="AC13" s="318"/>
+      <c r="AD13" s="318"/>
+      <c r="AE13" s="357"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -3405,12 +3397,12 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="330" t="s">
+      <c r="L14" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="31"/>
@@ -3421,14 +3413,14 @@
       <c r="W14" s="35"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="37"/>
-      <c r="Z14" s="332"/>
-      <c r="AA14" s="333"/>
-      <c r="AB14" s="334" t="s">
+      <c r="Z14" s="414"/>
+      <c r="AA14" s="415"/>
+      <c r="AB14" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="331"/>
-      <c r="AD14" s="331"/>
-      <c r="AE14" s="335"/>
+      <c r="AC14" s="310"/>
+      <c r="AD14" s="310"/>
+      <c r="AE14" s="408"/>
     </row>
     <row r="15" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -3452,10 +3444,10 @@
       <c r="Q15" s="56"/>
       <c r="R15" s="53"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="334"/>
-      <c r="U15" s="336"/>
-      <c r="V15" s="336"/>
-      <c r="W15" s="337"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="318"/>
+      <c r="V15" s="318"/>
+      <c r="W15" s="319"/>
       <c r="X15" s="57"/>
       <c r="Z15" s="58"/>
       <c r="AA15" s="59"/>
@@ -3529,44 +3521,44 @@
       <c r="G17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="430" t="s">
+      <c r="H17" s="304" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="301"/>
       <c r="J17" s="301"/>
       <c r="K17" s="302"/>
-      <c r="L17" s="429" t="s">
+      <c r="L17" s="303" t="s">
         <v>48</v>
       </c>
       <c r="M17" s="301"/>
       <c r="N17" s="301"/>
       <c r="O17" s="302"/>
-      <c r="P17" s="345" t="s">
+      <c r="P17" s="339" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="346"/>
-      <c r="R17" s="346"/>
-      <c r="S17" s="347"/>
-      <c r="T17" s="303" t="s">
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="344"/>
+      <c r="T17" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="305"/>
-      <c r="V17" s="303" t="s">
+      <c r="U17" s="315"/>
+      <c r="V17" s="313" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="305"/>
-      <c r="X17" s="345" t="s">
+      <c r="W17" s="315"/>
+      <c r="X17" s="339" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="346"/>
-      <c r="Z17" s="346"/>
-      <c r="AA17" s="347"/>
-      <c r="AB17" s="309" t="s">
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="344"/>
+      <c r="AB17" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="AC17" s="310"/>
-      <c r="AD17" s="310"/>
-      <c r="AE17" s="311"/>
+      <c r="AC17" s="401"/>
+      <c r="AD17" s="401"/>
+      <c r="AE17" s="402"/>
     </row>
     <row r="18" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3602,20 +3594,20 @@
       <c r="S18" s="35"/>
       <c r="T18" s="33"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="312" t="s">
+      <c r="V18" s="393" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="314"/>
-      <c r="X18" s="348" t="s">
+      <c r="W18" s="395"/>
+      <c r="X18" s="403" t="s">
         <v>56</v>
       </c>
-      <c r="Y18" s="349"/>
-      <c r="Z18" s="349"/>
-      <c r="AA18" s="350"/>
-      <c r="AB18" s="315"/>
-      <c r="AC18" s="316"/>
-      <c r="AD18" s="316"/>
-      <c r="AE18" s="320"/>
+      <c r="Y18" s="404"/>
+      <c r="Z18" s="404"/>
+      <c r="AA18" s="405"/>
+      <c r="AB18" s="416"/>
+      <c r="AC18" s="417"/>
+      <c r="AD18" s="417"/>
+      <c r="AE18" s="418"/>
     </row>
     <row r="19" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -3639,32 +3631,32 @@
       <c r="M19" s="41"/>
       <c r="N19" s="27"/>
       <c r="O19" s="42"/>
-      <c r="P19" s="338" t="s">
+      <c r="P19" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="340"/>
-      <c r="R19" s="340"/>
-      <c r="S19" s="339"/>
-      <c r="T19" s="355" t="s">
+      <c r="Q19" s="307"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="312"/>
+      <c r="T19" s="409" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="356"/>
-      <c r="V19" s="357" t="s">
+      <c r="U19" s="410"/>
+      <c r="V19" s="411" t="s">
         <v>61</v>
       </c>
-      <c r="W19" s="358"/>
-      <c r="X19" s="338" t="s">
+      <c r="W19" s="412"/>
+      <c r="X19" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="340"/>
-      <c r="Z19" s="340"/>
-      <c r="AA19" s="339"/>
-      <c r="AB19" s="343" t="s">
+      <c r="Y19" s="307"/>
+      <c r="Z19" s="307"/>
+      <c r="AA19" s="312"/>
+      <c r="AB19" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="AC19" s="336"/>
-      <c r="AD19" s="336"/>
-      <c r="AE19" s="344"/>
+      <c r="AC19" s="318"/>
+      <c r="AD19" s="318"/>
+      <c r="AE19" s="357"/>
     </row>
     <row r="20" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -3706,18 +3698,18 @@
       <c r="U20" s="46"/>
       <c r="V20" s="31"/>
       <c r="W20" s="35"/>
-      <c r="X20" s="330" t="s">
+      <c r="X20" s="341" t="s">
         <v>68</v>
       </c>
-      <c r="Y20" s="353"/>
-      <c r="Z20" s="353"/>
-      <c r="AA20" s="354"/>
-      <c r="AB20" s="330" t="s">
+      <c r="Y20" s="335"/>
+      <c r="Z20" s="335"/>
+      <c r="AA20" s="311"/>
+      <c r="AB20" s="341" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="331"/>
-      <c r="AD20" s="331"/>
-      <c r="AE20" s="335"/>
+      <c r="AC20" s="310"/>
+      <c r="AD20" s="310"/>
+      <c r="AE20" s="408"/>
     </row>
     <row r="21" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -3790,10 +3782,10 @@
         <v>73</v>
       </c>
       <c r="U22" s="71"/>
-      <c r="V22" s="351" t="s">
+      <c r="V22" s="406" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="352"/>
+      <c r="W22" s="407"/>
       <c r="X22" s="70" t="s">
         <v>75</v>
       </c>
@@ -3819,42 +3811,42 @@
       <c r="G23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="321" t="s">
+      <c r="H23" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="322"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="322"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="330"/>
       <c r="L23" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="322"/>
-      <c r="N23" s="322"/>
-      <c r="O23" s="324"/>
-      <c r="P23" s="345" t="s">
+      <c r="M23" s="330"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="331"/>
+      <c r="P23" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="346"/>
-      <c r="R23" s="346"/>
-      <c r="S23" s="347"/>
-      <c r="T23" s="303" t="s">
+      <c r="Q23" s="326"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="344"/>
+      <c r="T23" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="U23" s="304"/>
-      <c r="V23" s="304"/>
-      <c r="W23" s="305"/>
-      <c r="X23" s="345" t="s">
+      <c r="U23" s="314"/>
+      <c r="V23" s="314"/>
+      <c r="W23" s="315"/>
+      <c r="X23" s="339" t="s">
         <v>78</v>
       </c>
-      <c r="Y23" s="346"/>
-      <c r="Z23" s="346"/>
-      <c r="AA23" s="347"/>
-      <c r="AB23" s="359" t="s">
+      <c r="Y23" s="326"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="344"/>
+      <c r="AB23" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="AC23" s="359"/>
-      <c r="AD23" s="359"/>
-      <c r="AE23" s="360"/>
+      <c r="AC23" s="324"/>
+      <c r="AD23" s="324"/>
+      <c r="AE23" s="413"/>
     </row>
     <row r="24" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="s">
@@ -3892,16 +3884,16 @@
       <c r="U24" s="88"/>
       <c r="V24" s="79"/>
       <c r="W24" s="89"/>
-      <c r="X24" s="312"/>
-      <c r="Y24" s="313"/>
-      <c r="Z24" s="313"/>
-      <c r="AA24" s="314"/>
-      <c r="AB24" s="336" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC24" s="336"/>
-      <c r="AD24" s="336"/>
-      <c r="AE24" s="344"/>
+      <c r="X24" s="393"/>
+      <c r="Y24" s="394"/>
+      <c r="Z24" s="394"/>
+      <c r="AA24" s="395"/>
+      <c r="AB24" s="318" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC24" s="318"/>
+      <c r="AD24" s="318"/>
+      <c r="AE24" s="357"/>
     </row>
     <row r="25" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="86" t="s">
@@ -3925,30 +3917,30 @@
       <c r="M25" s="41"/>
       <c r="N25" s="27"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="338" t="s">
+      <c r="P25" s="306" t="s">
         <v>87</v>
       </c>
-      <c r="Q25" s="340"/>
-      <c r="R25" s="340"/>
-      <c r="S25" s="339"/>
-      <c r="T25" s="338" t="s">
+      <c r="Q25" s="307"/>
+      <c r="R25" s="307"/>
+      <c r="S25" s="312"/>
+      <c r="T25" s="306" t="s">
         <v>88</v>
       </c>
-      <c r="U25" s="340"/>
-      <c r="V25" s="340"/>
-      <c r="W25" s="339"/>
-      <c r="X25" s="363" t="s">
+      <c r="U25" s="307"/>
+      <c r="V25" s="307"/>
+      <c r="W25" s="312"/>
+      <c r="X25" s="389" t="s">
         <v>89</v>
       </c>
-      <c r="Y25" s="364"/>
-      <c r="Z25" s="364"/>
-      <c r="AA25" s="365"/>
-      <c r="AB25" s="366" t="s">
+      <c r="Y25" s="381"/>
+      <c r="Z25" s="381"/>
+      <c r="AA25" s="390"/>
+      <c r="AB25" s="398" t="s">
         <v>90</v>
       </c>
-      <c r="AC25" s="336"/>
-      <c r="AD25" s="336"/>
-      <c r="AE25" s="344"/>
+      <c r="AC25" s="318"/>
+      <c r="AD25" s="318"/>
+      <c r="AE25" s="357"/>
     </row>
     <row r="26" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="s">
@@ -3986,22 +3978,22 @@
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="367" t="s">
+      <c r="T26" s="332" t="s">
         <v>94</v>
       </c>
-      <c r="U26" s="368"/>
-      <c r="V26" s="368"/>
-      <c r="W26" s="369"/>
-      <c r="X26" s="353" t="s">
+      <c r="U26" s="399"/>
+      <c r="V26" s="399"/>
+      <c r="W26" s="400"/>
+      <c r="X26" s="335" t="s">
         <v>92</v>
       </c>
-      <c r="Y26" s="353"/>
-      <c r="Z26" s="353"/>
-      <c r="AA26" s="354"/>
-      <c r="AB26" s="370" t="s">
+      <c r="Y26" s="335"/>
+      <c r="Z26" s="335"/>
+      <c r="AA26" s="311"/>
+      <c r="AB26" s="382" t="s">
         <v>95</v>
       </c>
-      <c r="AC26" s="371"/>
+      <c r="AC26" s="383"/>
       <c r="AD26" s="93" t="s">
         <v>79</v>
       </c>
@@ -4029,10 +4021,10 @@
       <c r="Q27" s="45"/>
       <c r="R27" s="53"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="372"/>
-      <c r="U27" s="373"/>
-      <c r="V27" s="373"/>
-      <c r="W27" s="374"/>
+      <c r="T27" s="384"/>
+      <c r="U27" s="385"/>
+      <c r="V27" s="385"/>
+      <c r="W27" s="386"/>
       <c r="X27" s="57"/>
       <c r="Z27" s="58"/>
       <c r="AA27" s="59"/>
@@ -4043,9 +4035,11 @@
         <v>228</v>
       </c>
       <c r="AD27" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE27" s="100"/>
+        <v>230</v>
+      </c>
+      <c r="AE27" s="100" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="28" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
@@ -4089,14 +4083,14 @@
       <c r="Y28" s="104"/>
       <c r="Z28" s="105"/>
       <c r="AA28" s="106"/>
-      <c r="AB28" s="375" t="s">
+      <c r="AB28" s="387" t="s">
         <v>101</v>
       </c>
-      <c r="AC28" s="376"/>
-      <c r="AD28" s="361" t="s">
+      <c r="AC28" s="388"/>
+      <c r="AD28" s="396" t="s">
         <v>102</v>
       </c>
-      <c r="AE28" s="362"/>
+      <c r="AE28" s="397"/>
     </row>
     <row r="29" spans="1:31" s="13" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86" t="s">
@@ -4110,32 +4104,32 @@
       <c r="G29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="321" t="s">
+      <c r="H29" s="329" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="322"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="322"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="330"/>
       <c r="L29" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="322"/>
-      <c r="N29" s="322"/>
-      <c r="O29" s="324"/>
-      <c r="P29" s="345"/>
-      <c r="Q29" s="346"/>
-      <c r="R29" s="346"/>
-      <c r="S29" s="347"/>
-      <c r="T29" s="377" t="s">
+      <c r="M29" s="330"/>
+      <c r="N29" s="330"/>
+      <c r="O29" s="331"/>
+      <c r="P29" s="339"/>
+      <c r="Q29" s="326"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="344"/>
+      <c r="T29" s="391" t="s">
         <v>105</v>
       </c>
-      <c r="U29" s="378"/>
-      <c r="V29" s="378"/>
-      <c r="W29" s="378"/>
-      <c r="X29" s="345"/>
-      <c r="Y29" s="346"/>
-      <c r="Z29" s="346"/>
-      <c r="AA29" s="347"/>
+      <c r="U29" s="392"/>
+      <c r="V29" s="392"/>
+      <c r="W29" s="392"/>
+      <c r="X29" s="339"/>
+      <c r="Y29" s="326"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="344"/>
       <c r="AB29" s="107" t="s">
         <v>106</v>
       </c>
@@ -4171,18 +4165,18 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="312"/>
-      <c r="Q30" s="313"/>
-      <c r="R30" s="313"/>
-      <c r="S30" s="314"/>
+      <c r="P30" s="393"/>
+      <c r="Q30" s="394"/>
+      <c r="R30" s="394"/>
+      <c r="S30" s="395"/>
       <c r="T30" s="109"/>
       <c r="U30" s="110"/>
       <c r="V30" s="28"/>
       <c r="W30" s="50"/>
-      <c r="X30" s="312"/>
-      <c r="Y30" s="313"/>
-      <c r="Z30" s="313"/>
-      <c r="AA30" s="314"/>
+      <c r="X30" s="393"/>
+      <c r="Y30" s="394"/>
+      <c r="Z30" s="394"/>
+      <c r="AA30" s="395"/>
       <c r="AB30" s="111"/>
       <c r="AC30" s="112"/>
       <c r="AD30" s="110"/>
@@ -4210,20 +4204,20 @@
       <c r="M31" s="41"/>
       <c r="N31" s="27"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="338"/>
-      <c r="Q31" s="340"/>
-      <c r="R31" s="340"/>
-      <c r="S31" s="339"/>
-      <c r="T31" s="363" t="s">
+      <c r="P31" s="306"/>
+      <c r="Q31" s="307"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="312"/>
+      <c r="T31" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="364"/>
-      <c r="V31" s="364"/>
-      <c r="W31" s="364"/>
-      <c r="X31" s="363"/>
-      <c r="Y31" s="364"/>
-      <c r="Z31" s="364"/>
-      <c r="AA31" s="365"/>
+      <c r="U31" s="381"/>
+      <c r="V31" s="381"/>
+      <c r="W31" s="381"/>
+      <c r="X31" s="389"/>
+      <c r="Y31" s="381"/>
+      <c r="Z31" s="381"/>
+      <c r="AA31" s="390"/>
       <c r="AB31" s="114"/>
       <c r="AC31" s="112" t="s">
         <v>110</v>
@@ -4261,20 +4255,20 @@
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="379"/>
-      <c r="Q32" s="380"/>
-      <c r="R32" s="380"/>
-      <c r="S32" s="381"/>
-      <c r="T32" s="382" t="s">
+      <c r="P32" s="351"/>
+      <c r="Q32" s="352"/>
+      <c r="R32" s="352"/>
+      <c r="S32" s="353"/>
+      <c r="T32" s="380" t="s">
         <v>113</v>
       </c>
-      <c r="U32" s="364"/>
-      <c r="V32" s="364"/>
-      <c r="W32" s="364"/>
-      <c r="X32" s="330"/>
-      <c r="Y32" s="331"/>
-      <c r="Z32" s="331"/>
-      <c r="AA32" s="354"/>
+      <c r="U32" s="381"/>
+      <c r="V32" s="381"/>
+      <c r="W32" s="381"/>
+      <c r="X32" s="341"/>
+      <c r="Y32" s="310"/>
+      <c r="Z32" s="310"/>
+      <c r="AA32" s="311"/>
       <c r="AB32" s="116"/>
       <c r="AC32" s="110" t="s">
         <v>114</v>
@@ -4375,34 +4369,34 @@
       <c r="G35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="321" t="s">
+      <c r="H35" s="329" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="322"/>
-      <c r="J35" s="322"/>
-      <c r="K35" s="322"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="330"/>
+      <c r="K35" s="330"/>
       <c r="L35" s="323" t="s">
         <v>119</v>
       </c>
-      <c r="M35" s="322"/>
-      <c r="N35" s="322"/>
-      <c r="O35" s="324"/>
-      <c r="P35" s="303"/>
-      <c r="Q35" s="304"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="305"/>
-      <c r="T35" s="303" t="s">
+      <c r="M35" s="330"/>
+      <c r="N35" s="330"/>
+      <c r="O35" s="331"/>
+      <c r="P35" s="313"/>
+      <c r="Q35" s="314"/>
+      <c r="R35" s="314"/>
+      <c r="S35" s="315"/>
+      <c r="T35" s="313" t="s">
         <v>120</v>
       </c>
-      <c r="U35" s="304"/>
-      <c r="V35" s="304"/>
-      <c r="W35" s="305"/>
-      <c r="X35" s="303" t="s">
+      <c r="U35" s="314"/>
+      <c r="V35" s="314"/>
+      <c r="W35" s="315"/>
+      <c r="X35" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="Y35" s="304"/>
-      <c r="Z35" s="304"/>
-      <c r="AA35" s="305"/>
+      <c r="Y35" s="314"/>
+      <c r="Z35" s="314"/>
+      <c r="AA35" s="315"/>
       <c r="AB35" s="107" t="s">
         <v>122</v>
       </c>
@@ -4479,26 +4473,26 @@
       <c r="M37" s="41"/>
       <c r="N37" s="27"/>
       <c r="O37" s="42"/>
-      <c r="P37" s="338"/>
-      <c r="Q37" s="340"/>
-      <c r="R37" s="340"/>
-      <c r="S37" s="339"/>
-      <c r="T37" s="343" t="s">
+      <c r="P37" s="306"/>
+      <c r="Q37" s="307"/>
+      <c r="R37" s="307"/>
+      <c r="S37" s="312"/>
+      <c r="T37" s="342" t="s">
         <v>127</v>
       </c>
-      <c r="U37" s="336"/>
-      <c r="V37" s="336"/>
-      <c r="W37" s="337"/>
-      <c r="X37" s="338" t="s">
+      <c r="U37" s="318"/>
+      <c r="V37" s="318"/>
+      <c r="W37" s="319"/>
+      <c r="X37" s="306" t="s">
         <v>128</v>
       </c>
-      <c r="Y37" s="340"/>
-      <c r="Z37" s="340"/>
-      <c r="AA37" s="339"/>
-      <c r="AB37" s="389"/>
-      <c r="AC37" s="390"/>
-      <c r="AD37" s="390"/>
-      <c r="AE37" s="391"/>
+      <c r="Y37" s="307"/>
+      <c r="Z37" s="307"/>
+      <c r="AA37" s="312"/>
+      <c r="AB37" s="370"/>
+      <c r="AC37" s="371"/>
+      <c r="AD37" s="371"/>
+      <c r="AE37" s="372"/>
     </row>
     <row r="38" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="86" t="s">
@@ -4531,27 +4525,27 @@
       <c r="N38" s="31"/>
       <c r="O38" s="32"/>
       <c r="P38" s="33"/>
-      <c r="Q38" s="392"/>
-      <c r="R38" s="392"/>
+      <c r="Q38" s="373"/>
+      <c r="R38" s="373"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="393" t="s">
+      <c r="T38" s="358" t="s">
         <v>91</v>
       </c>
-      <c r="U38" s="394"/>
-      <c r="V38" s="394"/>
-      <c r="W38" s="395"/>
-      <c r="X38" s="396" t="s">
+      <c r="U38" s="359"/>
+      <c r="V38" s="359"/>
+      <c r="W38" s="360"/>
+      <c r="X38" s="374" t="s">
         <v>129</v>
       </c>
-      <c r="Y38" s="397"/>
-      <c r="Z38" s="397"/>
-      <c r="AA38" s="398"/>
-      <c r="AB38" s="399" t="s">
+      <c r="Y38" s="375"/>
+      <c r="Z38" s="375"/>
+      <c r="AA38" s="376"/>
+      <c r="AB38" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="AC38" s="400"/>
-      <c r="AD38" s="400"/>
-      <c r="AE38" s="401"/>
+      <c r="AC38" s="378"/>
+      <c r="AD38" s="378"/>
+      <c r="AE38" s="379"/>
     </row>
     <row r="39" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
@@ -4575,18 +4569,18 @@
       <c r="Q39" s="45"/>
       <c r="R39" s="53"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="383"/>
-      <c r="U39" s="384"/>
-      <c r="V39" s="384"/>
-      <c r="W39" s="385"/>
+      <c r="T39" s="345"/>
+      <c r="U39" s="346"/>
+      <c r="V39" s="346"/>
+      <c r="W39" s="347"/>
       <c r="X39" s="55"/>
       <c r="Y39" s="45"/>
       <c r="Z39" s="53"/>
       <c r="AA39" s="119"/>
-      <c r="AB39" s="386"/>
-      <c r="AC39" s="387"/>
-      <c r="AD39" s="387"/>
-      <c r="AE39" s="388"/>
+      <c r="AB39" s="367"/>
+      <c r="AC39" s="368"/>
+      <c r="AD39" s="368"/>
+      <c r="AE39" s="369"/>
     </row>
     <row r="40" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101" t="s">
@@ -4651,28 +4645,28 @@
       <c r="G41" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="321"/>
-      <c r="I41" s="359"/>
-      <c r="J41" s="359"/>
-      <c r="K41" s="359"/>
-      <c r="L41" s="359"/>
-      <c r="M41" s="359"/>
-      <c r="N41" s="359"/>
-      <c r="O41" s="409"/>
-      <c r="P41" s="303"/>
-      <c r="Q41" s="304"/>
-      <c r="R41" s="304"/>
-      <c r="S41" s="305"/>
-      <c r="T41" s="303"/>
-      <c r="U41" s="304"/>
-      <c r="V41" s="304"/>
-      <c r="W41" s="305"/>
+      <c r="H41" s="329"/>
+      <c r="I41" s="324"/>
+      <c r="J41" s="324"/>
+      <c r="K41" s="324"/>
+      <c r="L41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="324"/>
+      <c r="O41" s="325"/>
+      <c r="P41" s="313"/>
+      <c r="Q41" s="314"/>
+      <c r="R41" s="314"/>
+      <c r="S41" s="315"/>
+      <c r="T41" s="313"/>
+      <c r="U41" s="314"/>
+      <c r="V41" s="314"/>
+      <c r="W41" s="315"/>
       <c r="X41" s="323" t="s">
         <v>137</v>
       </c>
-      <c r="Y41" s="359"/>
-      <c r="Z41" s="359"/>
-      <c r="AA41" s="409"/>
+      <c r="Y41" s="324"/>
+      <c r="Z41" s="324"/>
+      <c r="AA41" s="325"/>
       <c r="AB41" s="144"/>
       <c r="AC41" s="144"/>
       <c r="AD41" s="144"/>
@@ -4702,10 +4696,10 @@
       </c>
       <c r="H42" s="148"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="340"/>
-      <c r="K42" s="340"/>
-      <c r="L42" s="340"/>
-      <c r="M42" s="340"/>
+      <c r="J42" s="307"/>
+      <c r="K42" s="307"/>
+      <c r="L42" s="307"/>
+      <c r="M42" s="307"/>
       <c r="N42" s="31"/>
       <c r="O42" s="34"/>
       <c r="P42" s="33"/>
@@ -4737,28 +4731,28 @@
       <c r="E43" s="39"/>
       <c r="F43" s="23"/>
       <c r="G43" s="90"/>
-      <c r="H43" s="408"/>
-      <c r="I43" s="340"/>
-      <c r="J43" s="340"/>
-      <c r="K43" s="340"/>
-      <c r="L43" s="340"/>
-      <c r="M43" s="340"/>
-      <c r="N43" s="340"/>
-      <c r="O43" s="339"/>
-      <c r="P43" s="338"/>
-      <c r="Q43" s="340"/>
-      <c r="R43" s="340"/>
-      <c r="S43" s="339"/>
-      <c r="T43" s="338"/>
-      <c r="U43" s="340"/>
-      <c r="V43" s="340"/>
-      <c r="W43" s="339"/>
-      <c r="X43" s="402" t="s">
+      <c r="H43" s="366"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="307"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="307"/>
+      <c r="M43" s="307"/>
+      <c r="N43" s="307"/>
+      <c r="O43" s="312"/>
+      <c r="P43" s="306"/>
+      <c r="Q43" s="307"/>
+      <c r="R43" s="307"/>
+      <c r="S43" s="312"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
+      <c r="V43" s="307"/>
+      <c r="W43" s="312"/>
+      <c r="X43" s="320" t="s">
         <v>140</v>
       </c>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="403"/>
-      <c r="AA43" s="404"/>
+      <c r="Y43" s="321"/>
+      <c r="Z43" s="321"/>
+      <c r="AA43" s="322"/>
       <c r="AB43" s="156"/>
       <c r="AC43" s="157"/>
       <c r="AD43" s="156"/>
@@ -4815,14 +4809,14 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
       <c r="G45" s="90"/>
-      <c r="H45" s="405"/>
-      <c r="I45" s="406"/>
-      <c r="J45" s="406"/>
-      <c r="K45" s="406"/>
-      <c r="L45" s="406"/>
-      <c r="M45" s="406"/>
-      <c r="N45" s="406"/>
-      <c r="O45" s="407"/>
+      <c r="H45" s="363"/>
+      <c r="I45" s="364"/>
+      <c r="J45" s="364"/>
+      <c r="K45" s="364"/>
+      <c r="L45" s="364"/>
+      <c r="M45" s="364"/>
+      <c r="N45" s="364"/>
+      <c r="O45" s="365"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="53"/>
@@ -4925,40 +4919,40 @@
       <c r="G48" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="321" t="s">
+      <c r="H48" s="329" t="s">
         <v>142</v>
       </c>
-      <c r="I48" s="322"/>
-      <c r="J48" s="322"/>
-      <c r="K48" s="322"/>
-      <c r="L48" s="429" t="s">
+      <c r="I48" s="330"/>
+      <c r="J48" s="330"/>
+      <c r="K48" s="330"/>
+      <c r="L48" s="303" t="s">
         <v>142</v>
       </c>
       <c r="M48" s="301"/>
       <c r="N48" s="301"/>
       <c r="O48" s="302"/>
-      <c r="P48" s="309" t="s">
+      <c r="P48" s="354" t="s">
         <v>143</v>
       </c>
-      <c r="Q48" s="411"/>
-      <c r="R48" s="411"/>
-      <c r="S48" s="412"/>
-      <c r="T48" s="303" t="s">
+      <c r="Q48" s="355"/>
+      <c r="R48" s="355"/>
+      <c r="S48" s="356"/>
+      <c r="T48" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="U48" s="304"/>
-      <c r="V48" s="304"/>
-      <c r="W48" s="305"/>
-      <c r="X48" s="303"/>
-      <c r="Y48" s="304"/>
-      <c r="Z48" s="304"/>
-      <c r="AA48" s="305"/>
-      <c r="AB48" s="345" t="s">
+      <c r="U48" s="314"/>
+      <c r="V48" s="314"/>
+      <c r="W48" s="315"/>
+      <c r="X48" s="313"/>
+      <c r="Y48" s="314"/>
+      <c r="Z48" s="314"/>
+      <c r="AA48" s="315"/>
+      <c r="AB48" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="AC48" s="346"/>
-      <c r="AD48" s="346"/>
-      <c r="AE48" s="410"/>
+      <c r="AC48" s="326"/>
+      <c r="AD48" s="326"/>
+      <c r="AE48" s="327"/>
     </row>
     <row r="49" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
@@ -5028,27 +5022,27 @@
       <c r="N50" s="27"/>
       <c r="O50" s="42"/>
       <c r="P50" s="186"/>
-      <c r="Q50" s="414" t="s">
+      <c r="Q50" s="362" t="s">
         <v>149</v>
       </c>
-      <c r="R50" s="414"/>
+      <c r="R50" s="362"/>
       <c r="S50" s="187"/>
-      <c r="T50" s="343" t="s">
+      <c r="T50" s="342" t="s">
         <v>150</v>
       </c>
-      <c r="U50" s="336"/>
-      <c r="V50" s="336"/>
-      <c r="W50" s="337"/>
-      <c r="X50" s="338"/>
-      <c r="Y50" s="340"/>
-      <c r="Z50" s="340"/>
-      <c r="AA50" s="339"/>
-      <c r="AB50" s="343" t="s">
+      <c r="U50" s="318"/>
+      <c r="V50" s="318"/>
+      <c r="W50" s="319"/>
+      <c r="X50" s="306"/>
+      <c r="Y50" s="307"/>
+      <c r="Z50" s="307"/>
+      <c r="AA50" s="312"/>
+      <c r="AB50" s="342" t="s">
         <v>146</v>
       </c>
-      <c r="AC50" s="336"/>
-      <c r="AD50" s="336"/>
-      <c r="AE50" s="344"/>
+      <c r="AC50" s="318"/>
+      <c r="AD50" s="318"/>
+      <c r="AE50" s="357"/>
     </row>
     <row r="51" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
@@ -5086,22 +5080,22 @@
       <c r="Q51" s="80"/>
       <c r="R51" s="80"/>
       <c r="S51" s="187"/>
-      <c r="T51" s="393" t="s">
+      <c r="T51" s="358" t="s">
         <v>151</v>
       </c>
-      <c r="U51" s="394"/>
-      <c r="V51" s="394"/>
-      <c r="W51" s="395"/>
-      <c r="X51" s="353"/>
-      <c r="Y51" s="353"/>
-      <c r="Z51" s="353"/>
-      <c r="AA51" s="354"/>
-      <c r="AB51" s="393" t="s">
+      <c r="U51" s="359"/>
+      <c r="V51" s="359"/>
+      <c r="W51" s="360"/>
+      <c r="X51" s="335"/>
+      <c r="Y51" s="335"/>
+      <c r="Z51" s="335"/>
+      <c r="AA51" s="311"/>
+      <c r="AB51" s="358" t="s">
         <v>153</v>
       </c>
-      <c r="AC51" s="394"/>
-      <c r="AD51" s="394"/>
-      <c r="AE51" s="413"/>
+      <c r="AC51" s="359"/>
+      <c r="AD51" s="359"/>
+      <c r="AE51" s="361"/>
     </row>
     <row r="52" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
@@ -5125,18 +5119,18 @@
       <c r="Q52" s="80"/>
       <c r="R52" s="183"/>
       <c r="S52" s="187"/>
-      <c r="T52" s="383"/>
-      <c r="U52" s="384"/>
-      <c r="V52" s="384"/>
-      <c r="W52" s="385"/>
+      <c r="T52" s="345"/>
+      <c r="U52" s="346"/>
+      <c r="V52" s="346"/>
+      <c r="W52" s="347"/>
       <c r="X52" s="55"/>
       <c r="Y52" s="45"/>
       <c r="Z52" s="53"/>
       <c r="AA52" s="119"/>
-      <c r="AB52" s="334"/>
-      <c r="AC52" s="384"/>
-      <c r="AD52" s="384"/>
-      <c r="AE52" s="415"/>
+      <c r="AB52" s="309"/>
+      <c r="AC52" s="346"/>
+      <c r="AD52" s="346"/>
+      <c r="AE52" s="348"/>
     </row>
     <row r="53" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
@@ -5195,12 +5189,12 @@
       <c r="G54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="321" t="s">
+      <c r="H54" s="329" t="s">
         <v>159</v>
       </c>
-      <c r="I54" s="322"/>
-      <c r="J54" s="322"/>
-      <c r="K54" s="324"/>
+      <c r="I54" s="330"/>
+      <c r="J54" s="330"/>
+      <c r="K54" s="331"/>
       <c r="L54" s="197" t="s">
         <v>160</v>
       </c>
@@ -5209,28 +5203,28 @@
         <v>161</v>
       </c>
       <c r="O54" s="199"/>
-      <c r="P54" s="303" t="s">
+      <c r="P54" s="313" t="s">
         <v>162</v>
       </c>
-      <c r="Q54" s="304"/>
-      <c r="R54" s="304"/>
-      <c r="S54" s="305"/>
-      <c r="T54" s="303" t="s">
+      <c r="Q54" s="314"/>
+      <c r="R54" s="314"/>
+      <c r="S54" s="315"/>
+      <c r="T54" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="U54" s="304"/>
-      <c r="V54" s="304"/>
-      <c r="W54" s="305"/>
-      <c r="X54" s="345" t="s">
+      <c r="U54" s="314"/>
+      <c r="V54" s="314"/>
+      <c r="W54" s="315"/>
+      <c r="X54" s="339" t="s">
         <v>164</v>
       </c>
-      <c r="Y54" s="346"/>
-      <c r="Z54" s="346"/>
-      <c r="AA54" s="347"/>
-      <c r="AB54" s="303" t="s">
+      <c r="Y54" s="326"/>
+      <c r="Z54" s="326"/>
+      <c r="AA54" s="344"/>
+      <c r="AB54" s="313" t="s">
         <v>162</v>
       </c>
-      <c r="AC54" s="423"/>
+      <c r="AC54" s="343"/>
       <c r="AD54" s="200" t="s">
         <v>79</v>
       </c>
@@ -5307,24 +5301,24 @@
         <v>168</v>
       </c>
       <c r="O56" s="42"/>
-      <c r="P56" s="338" t="s">
+      <c r="P56" s="306" t="s">
         <v>169</v>
       </c>
-      <c r="Q56" s="340"/>
-      <c r="R56" s="340"/>
-      <c r="S56" s="339"/>
-      <c r="T56" s="343" t="s">
+      <c r="Q56" s="307"/>
+      <c r="R56" s="307"/>
+      <c r="S56" s="312"/>
+      <c r="T56" s="342" t="s">
         <v>170</v>
       </c>
-      <c r="U56" s="336"/>
-      <c r="V56" s="336"/>
-      <c r="W56" s="337"/>
-      <c r="X56" s="338" t="s">
+      <c r="U56" s="318"/>
+      <c r="V56" s="318"/>
+      <c r="W56" s="319"/>
+      <c r="X56" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="Y56" s="340"/>
-      <c r="Z56" s="340"/>
-      <c r="AA56" s="339"/>
+      <c r="Y56" s="307"/>
+      <c r="Z56" s="307"/>
+      <c r="AA56" s="312"/>
       <c r="AB56" s="208" t="s">
         <v>172</v>
       </c>
@@ -5368,24 +5362,24 @@
         <v>152</v>
       </c>
       <c r="O57" s="42"/>
-      <c r="P57" s="330" t="s">
+      <c r="P57" s="341" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="331"/>
-      <c r="R57" s="331"/>
-      <c r="S57" s="331"/>
-      <c r="T57" s="367" t="s">
+      <c r="Q57" s="310"/>
+      <c r="R57" s="310"/>
+      <c r="S57" s="310"/>
+      <c r="T57" s="332" t="s">
         <v>176</v>
       </c>
-      <c r="U57" s="418"/>
-      <c r="V57" s="418"/>
-      <c r="W57" s="419"/>
-      <c r="X57" s="379" t="s">
+      <c r="U57" s="333"/>
+      <c r="V57" s="333"/>
+      <c r="W57" s="334"/>
+      <c r="X57" s="351" t="s">
         <v>37</v>
       </c>
-      <c r="Y57" s="380"/>
-      <c r="Z57" s="380"/>
-      <c r="AA57" s="381"/>
+      <c r="Y57" s="352"/>
+      <c r="Z57" s="352"/>
+      <c r="AA57" s="353"/>
       <c r="AB57" s="213" t="s">
         <v>69</v>
       </c>
@@ -5417,10 +5411,10 @@
       <c r="Q58" s="45"/>
       <c r="R58" s="53"/>
       <c r="S58" s="35"/>
-      <c r="T58" s="420"/>
-      <c r="U58" s="421"/>
-      <c r="V58" s="421"/>
-      <c r="W58" s="422"/>
+      <c r="T58" s="336"/>
+      <c r="U58" s="337"/>
+      <c r="V58" s="337"/>
+      <c r="W58" s="338"/>
       <c r="X58" s="81"/>
       <c r="Y58" s="82"/>
       <c r="Z58" s="79"/>
@@ -5495,38 +5489,38 @@
       <c r="G60" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="321" t="s">
+      <c r="H60" s="329" t="s">
         <v>182</v>
       </c>
-      <c r="I60" s="322"/>
-      <c r="J60" s="322"/>
-      <c r="K60" s="322"/>
+      <c r="I60" s="330"/>
+      <c r="J60" s="330"/>
+      <c r="K60" s="330"/>
       <c r="L60" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="M60" s="322"/>
-      <c r="N60" s="322"/>
-      <c r="O60" s="324"/>
-      <c r="P60" s="303" t="s">
+      <c r="M60" s="330"/>
+      <c r="N60" s="330"/>
+      <c r="O60" s="331"/>
+      <c r="P60" s="313" t="s">
         <v>183</v>
       </c>
-      <c r="Q60" s="304"/>
-      <c r="R60" s="304"/>
-      <c r="S60" s="305"/>
-      <c r="T60" s="303" t="s">
+      <c r="Q60" s="314"/>
+      <c r="R60" s="314"/>
+      <c r="S60" s="315"/>
+      <c r="T60" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="U60" s="304"/>
-      <c r="V60" s="304"/>
-      <c r="W60" s="305"/>
-      <c r="X60" s="303" t="s">
+      <c r="U60" s="314"/>
+      <c r="V60" s="314"/>
+      <c r="W60" s="315"/>
+      <c r="X60" s="313" t="s">
         <v>158</v>
       </c>
-      <c r="Y60" s="304"/>
-      <c r="Z60" s="304"/>
-      <c r="AA60" s="305"/>
-      <c r="AB60" s="416"/>
-      <c r="AC60" s="417"/>
+      <c r="Y60" s="314"/>
+      <c r="Z60" s="314"/>
+      <c r="AA60" s="315"/>
+      <c r="AB60" s="349"/>
+      <c r="AC60" s="350"/>
       <c r="AD60" s="221"/>
       <c r="AE60" s="222"/>
     </row>
@@ -5596,24 +5590,24 @@
       <c r="M62" s="41"/>
       <c r="N62" s="27"/>
       <c r="O62" s="42"/>
-      <c r="P62" s="338" t="s">
+      <c r="P62" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="Q62" s="340"/>
-      <c r="R62" s="340"/>
-      <c r="S62" s="339"/>
-      <c r="T62" s="338" t="s">
+      <c r="Q62" s="307"/>
+      <c r="R62" s="307"/>
+      <c r="S62" s="312"/>
+      <c r="T62" s="306" t="s">
         <v>188</v>
       </c>
-      <c r="U62" s="340"/>
-      <c r="V62" s="340"/>
-      <c r="W62" s="339"/>
-      <c r="X62" s="338" t="s">
+      <c r="U62" s="307"/>
+      <c r="V62" s="307"/>
+      <c r="W62" s="312"/>
+      <c r="X62" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="Y62" s="340"/>
-      <c r="Z62" s="340"/>
-      <c r="AA62" s="339"/>
+      <c r="Y62" s="307"/>
+      <c r="Z62" s="307"/>
+      <c r="AA62" s="312"/>
       <c r="AB62" s="227"/>
       <c r="AC62" s="228"/>
       <c r="AD62" s="229"/>
@@ -5651,24 +5645,24 @@
       </c>
       <c r="N63" s="31"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="330" t="s">
+      <c r="P63" s="341" t="s">
         <v>175</v>
       </c>
-      <c r="Q63" s="331"/>
-      <c r="R63" s="331"/>
-      <c r="S63" s="331"/>
+      <c r="Q63" s="310"/>
+      <c r="R63" s="310"/>
+      <c r="S63" s="310"/>
       <c r="T63" s="96"/>
-      <c r="U63" s="418" t="s">
+      <c r="U63" s="333" t="s">
         <v>112</v>
       </c>
-      <c r="V63" s="424"/>
+      <c r="V63" s="340"/>
       <c r="W63" s="234"/>
-      <c r="X63" s="330" t="s">
+      <c r="X63" s="341" t="s">
         <v>174</v>
       </c>
-      <c r="Y63" s="331"/>
-      <c r="Z63" s="331"/>
-      <c r="AA63" s="354"/>
+      <c r="Y63" s="310"/>
+      <c r="Z63" s="310"/>
+      <c r="AA63" s="311"/>
       <c r="AB63" s="235"/>
       <c r="AC63" s="236"/>
       <c r="AD63" s="237"/>
@@ -5764,42 +5758,42 @@
       <c r="G66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="321" t="s">
+      <c r="H66" s="329" t="s">
         <v>192</v>
       </c>
-      <c r="I66" s="322"/>
-      <c r="J66" s="322"/>
-      <c r="K66" s="322"/>
+      <c r="I66" s="330"/>
+      <c r="J66" s="330"/>
+      <c r="K66" s="330"/>
       <c r="L66" s="323" t="s">
         <v>192</v>
       </c>
-      <c r="M66" s="322"/>
-      <c r="N66" s="322"/>
-      <c r="O66" s="324"/>
-      <c r="P66" s="345" t="s">
+      <c r="M66" s="330"/>
+      <c r="N66" s="330"/>
+      <c r="O66" s="331"/>
+      <c r="P66" s="339" t="s">
         <v>193</v>
       </c>
-      <c r="Q66" s="346"/>
-      <c r="R66" s="346"/>
-      <c r="S66" s="346"/>
-      <c r="T66" s="303" t="s">
+      <c r="Q66" s="326"/>
+      <c r="R66" s="326"/>
+      <c r="S66" s="326"/>
+      <c r="T66" s="313" t="s">
         <v>84</v>
       </c>
-      <c r="U66" s="304"/>
-      <c r="V66" s="304"/>
-      <c r="W66" s="305"/>
-      <c r="X66" s="303" t="s">
+      <c r="U66" s="314"/>
+      <c r="V66" s="314"/>
+      <c r="W66" s="315"/>
+      <c r="X66" s="313" t="s">
         <v>194</v>
       </c>
-      <c r="Y66" s="304"/>
-      <c r="Z66" s="304"/>
-      <c r="AA66" s="305"/>
-      <c r="AB66" s="303" t="s">
+      <c r="Y66" s="314"/>
+      <c r="Z66" s="314"/>
+      <c r="AA66" s="315"/>
+      <c r="AB66" s="313" t="s">
         <v>195</v>
       </c>
-      <c r="AC66" s="304"/>
-      <c r="AD66" s="304"/>
-      <c r="AE66" s="427"/>
+      <c r="AC66" s="314"/>
+      <c r="AD66" s="314"/>
+      <c r="AE66" s="316"/>
     </row>
     <row r="67" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -5869,29 +5863,29 @@
       <c r="N68" s="27"/>
       <c r="O68" s="42"/>
       <c r="P68" s="33"/>
-      <c r="Q68" s="340" t="s">
+      <c r="Q68" s="307" t="s">
         <v>198</v>
       </c>
-      <c r="R68" s="340"/>
+      <c r="R68" s="307"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="343" t="s">
+      <c r="T68" s="342" t="s">
         <v>199</v>
       </c>
-      <c r="U68" s="336"/>
-      <c r="V68" s="336"/>
-      <c r="W68" s="337"/>
-      <c r="X68" s="338" t="s">
+      <c r="U68" s="318"/>
+      <c r="V68" s="318"/>
+      <c r="W68" s="319"/>
+      <c r="X68" s="306" t="s">
         <v>200</v>
       </c>
-      <c r="Y68" s="340"/>
-      <c r="Z68" s="340"/>
-      <c r="AA68" s="339"/>
-      <c r="AB68" s="338" t="s">
+      <c r="Y68" s="307"/>
+      <c r="Z68" s="307"/>
+      <c r="AA68" s="312"/>
+      <c r="AB68" s="306" t="s">
         <v>201</v>
       </c>
-      <c r="AC68" s="340"/>
-      <c r="AD68" s="340"/>
-      <c r="AE68" s="425"/>
+      <c r="AC68" s="307"/>
+      <c r="AD68" s="307"/>
+      <c r="AE68" s="308"/>
     </row>
     <row r="69" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
@@ -5926,25 +5920,25 @@
       <c r="N69" s="31"/>
       <c r="O69" s="32"/>
       <c r="P69" s="33"/>
-      <c r="Q69" s="426" t="s">
+      <c r="Q69" s="328" t="s">
         <v>111</v>
       </c>
-      <c r="R69" s="426"/>
+      <c r="R69" s="328"/>
       <c r="S69" s="35"/>
-      <c r="T69" s="367" t="s">
+      <c r="T69" s="332" t="s">
         <v>203</v>
       </c>
-      <c r="U69" s="418"/>
-      <c r="V69" s="418"/>
-      <c r="W69" s="419"/>
-      <c r="X69" s="353" t="s">
+      <c r="U69" s="333"/>
+      <c r="V69" s="333"/>
+      <c r="W69" s="334"/>
+      <c r="X69" s="335" t="s">
         <v>204</v>
       </c>
-      <c r="Y69" s="353"/>
-      <c r="Z69" s="353"/>
-      <c r="AA69" s="354"/>
+      <c r="Y69" s="335"/>
+      <c r="Z69" s="335"/>
+      <c r="AA69" s="311"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="431" t="s">
+      <c r="AC69" s="305" t="s">
         <v>66</v>
       </c>
       <c r="AD69" s="31"/>
@@ -5972,10 +5966,10 @@
       <c r="Q70" s="45"/>
       <c r="R70" s="53"/>
       <c r="S70" s="35"/>
-      <c r="T70" s="420"/>
-      <c r="U70" s="421"/>
-      <c r="V70" s="421"/>
-      <c r="W70" s="422"/>
+      <c r="T70" s="336"/>
+      <c r="U70" s="337"/>
+      <c r="V70" s="337"/>
+      <c r="W70" s="338"/>
       <c r="X70" s="55"/>
       <c r="Y70" s="45"/>
       <c r="Z70" s="53"/>
@@ -6046,38 +6040,38 @@
       <c r="G72" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="321" t="s">
+      <c r="H72" s="329" t="s">
         <v>209</v>
       </c>
-      <c r="I72" s="322"/>
-      <c r="J72" s="322"/>
-      <c r="K72" s="322"/>
+      <c r="I72" s="330"/>
+      <c r="J72" s="330"/>
+      <c r="K72" s="330"/>
       <c r="L72" s="323" t="s">
         <v>209</v>
       </c>
-      <c r="M72" s="322"/>
-      <c r="N72" s="322"/>
-      <c r="O72" s="324"/>
-      <c r="P72" s="303"/>
-      <c r="Q72" s="304"/>
-      <c r="R72" s="304"/>
-      <c r="S72" s="305"/>
-      <c r="T72" s="303" t="s">
+      <c r="M72" s="330"/>
+      <c r="N72" s="330"/>
+      <c r="O72" s="331"/>
+      <c r="P72" s="313"/>
+      <c r="Q72" s="314"/>
+      <c r="R72" s="314"/>
+      <c r="S72" s="315"/>
+      <c r="T72" s="313" t="s">
         <v>210</v>
       </c>
-      <c r="U72" s="304"/>
-      <c r="V72" s="304"/>
-      <c r="W72" s="305"/>
-      <c r="X72" s="303" t="s">
+      <c r="U72" s="314"/>
+      <c r="V72" s="314"/>
+      <c r="W72" s="315"/>
+      <c r="X72" s="313" t="s">
         <v>211</v>
       </c>
-      <c r="Y72" s="304"/>
-      <c r="Z72" s="304"/>
-      <c r="AA72" s="305"/>
-      <c r="AB72" s="303"/>
-      <c r="AC72" s="304"/>
-      <c r="AD72" s="304"/>
-      <c r="AE72" s="427"/>
+      <c r="Y72" s="314"/>
+      <c r="Z72" s="314"/>
+      <c r="AA72" s="315"/>
+      <c r="AB72" s="313"/>
+      <c r="AC72" s="314"/>
+      <c r="AD72" s="314"/>
+      <c r="AE72" s="316"/>
     </row>
     <row r="73" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
@@ -6146,26 +6140,26 @@
       <c r="M74" s="41"/>
       <c r="N74" s="27"/>
       <c r="O74" s="42"/>
-      <c r="P74" s="338"/>
-      <c r="Q74" s="340"/>
-      <c r="R74" s="340"/>
-      <c r="S74" s="339"/>
-      <c r="T74" s="338" t="s">
+      <c r="P74" s="306"/>
+      <c r="Q74" s="307"/>
+      <c r="R74" s="307"/>
+      <c r="S74" s="312"/>
+      <c r="T74" s="306" t="s">
         <v>214</v>
       </c>
-      <c r="U74" s="340"/>
-      <c r="V74" s="340"/>
-      <c r="W74" s="339"/>
-      <c r="X74" s="338" t="s">
+      <c r="U74" s="307"/>
+      <c r="V74" s="307"/>
+      <c r="W74" s="312"/>
+      <c r="X74" s="306" t="s">
         <v>215</v>
       </c>
-      <c r="Y74" s="340"/>
-      <c r="Z74" s="340"/>
-      <c r="AA74" s="339"/>
-      <c r="AB74" s="338"/>
-      <c r="AC74" s="340"/>
-      <c r="AD74" s="340"/>
-      <c r="AE74" s="425"/>
+      <c r="Y74" s="307"/>
+      <c r="Z74" s="307"/>
+      <c r="AA74" s="312"/>
+      <c r="AB74" s="306"/>
+      <c r="AC74" s="307"/>
+      <c r="AD74" s="307"/>
+      <c r="AE74" s="308"/>
     </row>
     <row r="75" spans="1:31" s="79" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
@@ -6209,12 +6203,12 @@
       </c>
       <c r="V75" s="253"/>
       <c r="W75" s="250"/>
-      <c r="X75" s="334" t="s">
+      <c r="X75" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="Y75" s="331"/>
-      <c r="Z75" s="331"/>
-      <c r="AA75" s="354"/>
+      <c r="Y75" s="310"/>
+      <c r="Z75" s="310"/>
+      <c r="AA75" s="311"/>
       <c r="AB75" s="33"/>
       <c r="AC75" s="29"/>
       <c r="AD75" s="31"/>
@@ -6314,10 +6308,10 @@
       </c>
       <c r="H78" s="261"/>
       <c r="I78" s="262"/>
-      <c r="J78" s="304"/>
-      <c r="K78" s="304"/>
-      <c r="L78" s="304"/>
-      <c r="M78" s="304"/>
+      <c r="J78" s="314"/>
+      <c r="K78" s="314"/>
+      <c r="L78" s="314"/>
+      <c r="M78" s="314"/>
       <c r="N78" s="263"/>
       <c r="O78" s="264"/>
       <c r="P78" s="265"/>
@@ -6329,13 +6323,13 @@
       <c r="V78" s="271"/>
       <c r="W78" s="272"/>
       <c r="X78" s="323"/>
-      <c r="Y78" s="359"/>
-      <c r="Z78" s="359"/>
-      <c r="AA78" s="409"/>
-      <c r="AB78" s="346"/>
-      <c r="AC78" s="346"/>
-      <c r="AD78" s="346"/>
-      <c r="AE78" s="410"/>
+      <c r="Y78" s="324"/>
+      <c r="Z78" s="324"/>
+      <c r="AA78" s="325"/>
+      <c r="AB78" s="326"/>
+      <c r="AC78" s="326"/>
+      <c r="AD78" s="326"/>
+      <c r="AE78" s="327"/>
     </row>
     <row r="79" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
@@ -6393,14 +6387,14 @@
       <c r="E80" s="39"/>
       <c r="F80" s="23"/>
       <c r="G80" s="90"/>
-      <c r="H80" s="428"/>
-      <c r="I80" s="336"/>
-      <c r="J80" s="336"/>
-      <c r="K80" s="336"/>
-      <c r="L80" s="336"/>
-      <c r="M80" s="336"/>
-      <c r="N80" s="336"/>
-      <c r="O80" s="337"/>
+      <c r="H80" s="317"/>
+      <c r="I80" s="318"/>
+      <c r="J80" s="318"/>
+      <c r="K80" s="318"/>
+      <c r="L80" s="318"/>
+      <c r="M80" s="318"/>
+      <c r="N80" s="318"/>
+      <c r="O80" s="319"/>
       <c r="P80" s="280"/>
       <c r="Q80" s="281"/>
       <c r="R80" s="35"/>
@@ -6408,14 +6402,14 @@
       <c r="T80" s="96"/>
       <c r="U80" s="282"/>
       <c r="V80" s="97"/>
-      <c r="X80" s="402"/>
-      <c r="Y80" s="403"/>
-      <c r="Z80" s="403"/>
-      <c r="AA80" s="404"/>
-      <c r="AB80" s="340"/>
-      <c r="AC80" s="340"/>
-      <c r="AD80" s="340"/>
-      <c r="AE80" s="425"/>
+      <c r="X80" s="320"/>
+      <c r="Y80" s="321"/>
+      <c r="Z80" s="321"/>
+      <c r="AA80" s="322"/>
+      <c r="AB80" s="307"/>
+      <c r="AC80" s="307"/>
+      <c r="AD80" s="307"/>
+      <c r="AE80" s="308"/>
     </row>
     <row r="81" spans="1:31" s="13" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
@@ -6727,125 +6721,33 @@
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="AB74:AE74"/>
-    <mergeCell ref="X75:AA75"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="X74:AA74"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="X72:AA72"/>
-    <mergeCell ref="AB72:AE72"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="X80:AA80"/>
-    <mergeCell ref="AB80:AE80"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="X78:AA78"/>
-    <mergeCell ref="AB78:AE78"/>
-    <mergeCell ref="AB68:AE68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="X66:AA66"/>
-    <mergeCell ref="AB66:AE66"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="X69:AA69"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="X63:AA63"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="X68:AA68"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="T62:W62"/>
-    <mergeCell ref="X62:AA62"/>
-    <mergeCell ref="P63:S63"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="X60:AA60"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="X48:AA48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="X51:AA51"/>
-    <mergeCell ref="AB51:AE51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="X50:AA50"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
     <mergeCell ref="P19:S19"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
@@ -6867,33 +6769,125 @@
     <mergeCell ref="X23:AA23"/>
     <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="P17:S17"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="X48:AA48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="AB51:AE51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="X50:AA50"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="X60:AA60"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="X63:AA63"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="X68:AA68"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="T62:W62"/>
+    <mergeCell ref="X62:AA62"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="AB68:AE68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="X66:AA66"/>
+    <mergeCell ref="AB66:AE66"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="X69:AA69"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="AB74:AE74"/>
+    <mergeCell ref="X75:AA75"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="X74:AA74"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="X72:AA72"/>
+    <mergeCell ref="AB72:AE72"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="X80:AA80"/>
+    <mergeCell ref="AB80:AE80"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="X78:AA78"/>
+    <mergeCell ref="AB78:AE78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U63" r:id="rId1" display="oxabra@yandex.ru"/>
